--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="30">
   <si>
     <t xml:space="preserve">Amount = </t>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t xml:space="preserve">    S.No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>toheed</t>
+  </si>
+  <si>
+    <t>isran</t>
+  </si>
+  <si>
+    <t>wajid</t>
+  </si>
+  <si>
+    <t>aarif</t>
+  </si>
+  <si>
+    <t>farookh</t>
+  </si>
+  <si>
+    <t>shokeen</t>
+  </si>
+  <si>
+    <t>gulfam</t>
+  </si>
+  <si>
+    <t>shabir</t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>jabir</t>
+  </si>
+  <si>
+    <t>rafakat</t>
+  </si>
+  <si>
+    <t>safi</t>
+  </si>
+  <si>
+    <t>mustakim</t>
+  </si>
+  <si>
+    <t>intazar</t>
+  </si>
+  <si>
+    <t>mehmood</t>
+  </si>
+  <si>
+    <t>rasid</t>
+  </si>
+  <si>
+    <t>haseen</t>
+  </si>
+  <si>
+    <t>aashu</t>
+  </si>
+  <si>
+    <t>kayum</t>
   </si>
 </sst>
 </file>
@@ -384,4362 +444,5528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:F392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E389" sqref="E389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43466</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>43469</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="2">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24">
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>43470</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
         <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37">
         <v>13</v>
       </c>
-      <c r="D37">
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37">
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="D38">
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>15</v>
       </c>
-      <c r="D39">
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="D40">
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42">
         <v>18</v>
       </c>
-      <c r="D42">
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43">
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>20</v>
       </c>
-      <c r="D44">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>21</v>
       </c>
-      <c r="D45">
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>23</v>
       </c>
-      <c r="D47">
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48">
         <v>24</v>
       </c>
-      <c r="D48">
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48">
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49">
         <v>25</v>
       </c>
-      <c r="D49">
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49">
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>26</v>
       </c>
-      <c r="D50">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
         <v>453</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>27</v>
       </c>
-      <c r="D51">
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>28</v>
       </c>
-      <c r="D52">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>29</v>
       </c>
-      <c r="D53">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="D54">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
         <v>486</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55">
         <v>31</v>
       </c>
-      <c r="D55">
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>43471</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56">
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>2</v>
       </c>
-      <c r="D57">
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" s="2">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58">
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59">
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60">
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D61" s="2">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61">
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>7</v>
       </c>
-      <c r="D62">
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" s="2">
         <v>8</v>
       </c>
-      <c r="D63">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="C64" s="2">
+      <c r="D64" s="2">
         <v>9</v>
       </c>
-      <c r="D64">
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64">
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D65" s="2">
         <v>10</v>
       </c>
-      <c r="D65">
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65">
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" s="2">
         <v>11</v>
       </c>
-      <c r="D66">
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
         <v>538</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D67" s="2">
         <v>12</v>
       </c>
-      <c r="D67">
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67">
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D68" s="2">
         <v>13</v>
       </c>
-      <c r="D68">
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68">
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D69" s="2">
         <v>14</v>
       </c>
-      <c r="D69">
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69">
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D70" s="2">
         <v>15</v>
       </c>
-      <c r="D70">
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
         <v>453</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="C71" s="2">
+      <c r="D71" s="2">
         <v>16</v>
       </c>
-      <c r="D71">
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71">
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="C72" s="2">
+      <c r="D72" s="2">
         <v>17</v>
       </c>
-      <c r="D72">
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72">
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D73" s="2">
         <v>18</v>
       </c>
-      <c r="D73">
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" s="2">
         <v>19</v>
       </c>
-      <c r="D74">
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" s="2">
         <v>20</v>
       </c>
-      <c r="D75">
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75">
         <v>538</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" s="2">
         <v>21</v>
       </c>
-      <c r="D76">
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76">
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>22</v>
       </c>
-      <c r="D77">
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77">
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D78" s="2">
         <v>23</v>
       </c>
-      <c r="D78">
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
         <v>538</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="C79" s="2">
+      <c r="D79" s="2">
         <v>24</v>
       </c>
-      <c r="D79">
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79">
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" s="2">
+      <c r="D80" s="2">
         <v>25</v>
       </c>
-      <c r="D80">
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" s="2">
         <v>26</v>
       </c>
-      <c r="D81">
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" s="2">
         <v>27</v>
       </c>
-      <c r="D82">
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82">
         <v>538</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>43472</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="D83">
+      <c r="E83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83">
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="D84">
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84">
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2">
         <v>3</v>
       </c>
-      <c r="D85">
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2">
         <v>4</v>
       </c>
-      <c r="D86">
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86">
         <v>517</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" s="2">
         <v>5</v>
       </c>
-      <c r="D87">
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87">
         <v>538</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" s="2">
         <v>6</v>
       </c>
-      <c r="D88">
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="C89" s="2">
+      <c r="D89" s="2">
         <v>7</v>
       </c>
-      <c r="D89">
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" s="2">
         <v>8</v>
       </c>
-      <c r="D90">
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
         <v>470</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="C91" s="2">
+      <c r="D91" s="2">
         <v>9</v>
       </c>
-      <c r="D91">
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91">
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="C92" s="2">
+      <c r="D92" s="2">
         <v>10</v>
       </c>
-      <c r="D92">
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92">
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" s="2">
         <v>11</v>
       </c>
-      <c r="D93">
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93">
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="C94" s="2">
+      <c r="D94" s="2">
         <v>12</v>
       </c>
-      <c r="D94">
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94">
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="C95" s="2">
+      <c r="D95" s="2">
         <v>13</v>
       </c>
-      <c r="D95">
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95">
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="C96" s="2">
+      <c r="D96" s="2">
         <v>14</v>
       </c>
-      <c r="D96">
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="C97" s="2">
+      <c r="D97" s="2">
         <v>15</v>
       </c>
-      <c r="D97">
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
         <v>419</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="C98" s="2">
+      <c r="D98" s="2">
         <v>16</v>
       </c>
-      <c r="D98">
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98">
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="C99" s="2">
+      <c r="D99" s="2">
         <v>17</v>
       </c>
-      <c r="D99">
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99">
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="C100" s="2">
+      <c r="D100" s="2">
         <v>18</v>
       </c>
-      <c r="D100">
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100">
         <v>538</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="C101" s="2">
+      <c r="D101" s="2">
         <v>19</v>
       </c>
-      <c r="D101">
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101">
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="C102" s="2">
+      <c r="D102" s="2">
         <v>20</v>
       </c>
-      <c r="D102">
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102">
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="C103" s="2">
+      <c r="D103" s="2">
         <v>21</v>
       </c>
-      <c r="D103">
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103">
         <v>420</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="C104" s="2">
+      <c r="D104" s="2">
         <v>22</v>
       </c>
-      <c r="D104">
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104">
         <v>517</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="C105" s="2">
+      <c r="D105" s="2">
         <v>23</v>
       </c>
-      <c r="D105">
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="C106" s="2">
+      <c r="D106" s="2">
         <v>24</v>
       </c>
-      <c r="D106">
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="C107" s="2">
+      <c r="D107" s="2">
         <v>25</v>
       </c>
-      <c r="D107">
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107">
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="C108" s="2">
+      <c r="D108" s="2">
         <v>26</v>
       </c>
-      <c r="D108">
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108">
         <v>470</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="C109" s="2">
+      <c r="D109" s="2">
         <v>27</v>
       </c>
-      <c r="D109">
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109">
         <v>538</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="C110" s="2">
+      <c r="D110" s="2">
         <v>28</v>
       </c>
-      <c r="D110">
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110">
         <v>538</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="C111" s="2">
+      <c r="D111" s="2">
         <v>29</v>
       </c>
-      <c r="D111">
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111">
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="C112" s="2">
+      <c r="D112" s="2">
         <v>30</v>
       </c>
-      <c r="D112">
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112">
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="C113" s="2">
+      <c r="D113" s="2">
         <v>31</v>
       </c>
-      <c r="D113">
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113">
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="C114" s="2">
+      <c r="D114" s="2">
         <v>32</v>
       </c>
-      <c r="D114">
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114">
         <v>486</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>43473</v>
       </c>
-      <c r="C115" s="2">
+      <c r="D115" s="2">
         <v>1</v>
       </c>
-      <c r="D115">
+      <c r="E115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115">
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="C116" s="2">
+      <c r="D116" s="2">
         <v>2</v>
       </c>
-      <c r="D116">
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116">
         <v>420</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="C117" s="2">
+      <c r="D117" s="2">
         <v>3</v>
       </c>
-      <c r="D117">
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117">
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="C118" s="2">
+      <c r="D118" s="2">
         <v>4</v>
       </c>
-      <c r="D118">
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118">
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="C119" s="2">
+      <c r="D119" s="2">
         <v>5</v>
       </c>
-      <c r="D119">
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119">
         <v>410</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="C120" s="2">
+      <c r="D120" s="2">
         <v>6</v>
       </c>
-      <c r="D120">
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="C121" s="2">
+      <c r="D121" s="2">
         <v>7</v>
       </c>
-      <c r="D121">
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121">
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="C122" s="2">
+      <c r="D122" s="2">
         <v>8</v>
       </c>
-      <c r="D122">
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="C123" s="2">
+      <c r="D123" s="2">
         <v>9</v>
       </c>
-      <c r="D123">
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123">
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="C124" s="2">
+      <c r="D124" s="2">
         <v>10</v>
       </c>
-      <c r="D124">
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124">
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="C125" s="2">
+      <c r="D125" s="2">
         <v>11</v>
       </c>
-      <c r="D125">
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125">
         <v>538</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="C126" s="2">
+      <c r="D126" s="2">
         <v>12</v>
       </c>
-      <c r="D126">
+      <c r="E126" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126">
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="C127" s="2">
+      <c r="D127" s="2">
         <v>13</v>
       </c>
-      <c r="D127">
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="C128" s="2">
+      <c r="D128" s="2">
         <v>14</v>
       </c>
-      <c r="D128">
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128">
         <v>405</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="C129" s="2">
+      <c r="D129" s="2">
         <v>15</v>
       </c>
-      <c r="D129">
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129">
         <v>420</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="C130" s="2">
+      <c r="D130" s="2">
         <v>16</v>
       </c>
-      <c r="D130">
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130">
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="C131" s="2">
+      <c r="D131" s="2">
         <v>17</v>
       </c>
-      <c r="D131">
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131">
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="C132" s="2">
+      <c r="D132" s="2">
         <v>18</v>
       </c>
-      <c r="D132">
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132">
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="C133" s="2">
+      <c r="D133" s="2">
         <v>19</v>
       </c>
-      <c r="D133">
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133">
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="C134" s="2">
+      <c r="D134" s="2">
         <v>20</v>
       </c>
-      <c r="D134">
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134">
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="C135" s="2">
+      <c r="D135" s="2">
         <v>21</v>
       </c>
-      <c r="D135">
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135">
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="C136" s="2">
+      <c r="D136" s="2">
         <v>22</v>
       </c>
-      <c r="D136">
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136">
         <v>410</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="C137" s="2">
+      <c r="D137" s="2">
         <v>23</v>
       </c>
-      <c r="D137">
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137">
         <v>538</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="C138" s="2">
+      <c r="D138" s="2">
         <v>24</v>
       </c>
-      <c r="D138">
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138">
         <v>538</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="C139" s="2">
+      <c r="D139" s="2">
         <v>25</v>
       </c>
-      <c r="D139">
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139">
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="C140" s="2">
+      <c r="D140" s="2">
         <v>26</v>
       </c>
-      <c r="D140">
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140">
         <v>453</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="C141" s="2">
+      <c r="D141" s="2">
         <v>27</v>
       </c>
-      <c r="D141">
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141">
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="C142" s="2">
+      <c r="D142" s="2">
         <v>28</v>
       </c>
-      <c r="D142">
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142">
         <v>405</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="C143" s="2">
+      <c r="D143" s="2">
         <v>29</v>
       </c>
-      <c r="D143">
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143">
         <v>420</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="C144" s="2">
+      <c r="D144" s="2">
         <v>30</v>
       </c>
-      <c r="D144">
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144">
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="C145" s="2">
+      <c r="D145" s="2">
         <v>31</v>
       </c>
-      <c r="D145">
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="C146" s="2">
+      <c r="D146" s="2">
         <v>32</v>
       </c>
-      <c r="D146">
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146">
         <v>517</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="C147" s="2">
+      <c r="D147" s="2">
         <v>33</v>
       </c>
-      <c r="D147">
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147">
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="C148" s="2">
+      <c r="D148" s="2">
         <v>34</v>
       </c>
-      <c r="D148">
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148">
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="C149" s="2">
+      <c r="D149" s="2">
         <v>35</v>
       </c>
-      <c r="D149">
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149">
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="C150" s="2">
+      <c r="D150" s="2">
         <v>36</v>
       </c>
-      <c r="D150">
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150">
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="C151" s="2">
+      <c r="D151" s="2">
         <v>37</v>
       </c>
-      <c r="D151">
+      <c r="E151" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151">
         <v>410</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="C152" s="2">
+      <c r="D152" s="2">
         <v>38</v>
       </c>
-      <c r="D152">
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152">
         <v>419</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="C153" s="2">
+      <c r="D153" s="2">
         <v>39</v>
       </c>
-      <c r="D153">
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153">
         <v>538</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="C154" s="2">
+      <c r="D154" s="2">
         <v>40</v>
       </c>
-      <c r="D154">
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="1">
         <v>43474</v>
       </c>
-      <c r="C155" s="2">
+      <c r="D155" s="2">
         <v>1</v>
       </c>
-      <c r="D155">
+      <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155">
         <v>420</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="C156" s="2">
+      <c r="D156" s="2">
         <v>2</v>
       </c>
-      <c r="D156">
+      <c r="E156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156">
         <v>405</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="C157" s="2">
+      <c r="D157" s="2">
         <v>3</v>
       </c>
-      <c r="D157">
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157">
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="C158" s="2">
+      <c r="D158" s="2">
         <v>4</v>
       </c>
-      <c r="D158">
+      <c r="E158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158">
         <v>517</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="C159" s="2">
+      <c r="D159" s="2">
         <v>5</v>
       </c>
-      <c r="D159">
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159">
         <v>496</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="C160" s="2">
+      <c r="D160" s="2">
         <v>6</v>
       </c>
-      <c r="D160">
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160">
         <v>470</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="C161" s="2">
+      <c r="D161" s="2">
         <v>7</v>
       </c>
-      <c r="D161">
+      <c r="E161" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161">
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="C162" s="2">
+      <c r="D162" s="2">
         <v>8</v>
       </c>
-      <c r="D162">
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162">
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="C163" s="2">
+      <c r="D163" s="2">
         <v>9</v>
       </c>
-      <c r="D163">
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163">
         <v>486</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="C164" s="2">
+      <c r="D164" s="2">
         <v>10</v>
       </c>
-      <c r="D164">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="C165" s="2">
+      <c r="D165" s="2">
         <v>11</v>
       </c>
-      <c r="D165">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="C166" s="2">
+      <c r="D166" s="2">
         <v>12</v>
       </c>
-      <c r="D166">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="C167" s="2">
+      <c r="D167" s="2">
         <v>13</v>
       </c>
-      <c r="D167">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="C168" s="2">
+      <c r="D168" s="2">
         <v>14</v>
       </c>
-      <c r="D168">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="C169" s="2">
+      <c r="D169" s="2">
         <v>15</v>
       </c>
-      <c r="D169">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="C170" s="2">
+      <c r="D170" s="2">
         <v>16</v>
       </c>
-      <c r="D170">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="C171" s="2">
+      <c r="D171" s="2">
         <v>17</v>
       </c>
-      <c r="D171">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="C172" s="2">
+      <c r="D172" s="2">
         <v>18</v>
       </c>
-      <c r="D172">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="C173" s="2">
+      <c r="D173" s="2">
         <v>19</v>
       </c>
-      <c r="D173">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="C174" s="2">
+      <c r="D174" s="2">
         <v>20</v>
       </c>
-      <c r="D174">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="C175" s="2">
+      <c r="D175" s="2">
         <v>21</v>
       </c>
-      <c r="D175">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="C176" s="2">
+      <c r="D176" s="2">
         <v>22</v>
       </c>
-      <c r="D176">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="C177" s="2">
+      <c r="D177" s="2">
         <v>23</v>
       </c>
-      <c r="D177">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="C178" s="2">
+      <c r="D178" s="2">
         <v>24</v>
       </c>
-      <c r="D178">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="C179" s="2">
+      <c r="D179" s="2">
         <v>25</v>
       </c>
-      <c r="D179">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="C180" s="2">
+      <c r="D180" s="2">
         <v>26</v>
       </c>
-      <c r="D180">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="C181" s="2">
+      <c r="D181" s="2">
         <v>27</v>
       </c>
-      <c r="D181">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="C182" s="2">
+      <c r="D182" s="2">
         <v>28</v>
       </c>
-      <c r="D182">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="C183" s="2">
+      <c r="D183" s="2">
         <v>29</v>
       </c>
-      <c r="D183">
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183">
         <v>538</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="C184" s="2">
+      <c r="D184" s="2">
         <v>30</v>
       </c>
-      <c r="D184">
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184">
         <v>419</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="C185" s="2">
+      <c r="D185" s="2">
         <v>31</v>
       </c>
-      <c r="D185">
+      <c r="E185" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185">
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="C186" s="2">
+      <c r="D186" s="2">
         <v>32</v>
       </c>
-      <c r="D186">
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186">
         <v>416</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="C187" s="2">
+      <c r="D187" s="2">
         <v>33</v>
       </c>
-      <c r="D187">
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187">
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="C188" s="2">
+      <c r="D188" s="2">
         <v>34</v>
       </c>
-      <c r="D188">
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188">
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="C189" s="2">
+      <c r="D189" s="2">
         <v>35</v>
       </c>
-      <c r="D189">
+      <c r="E189" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189">
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="C190" s="2">
+      <c r="D190" s="2">
         <v>36</v>
       </c>
-      <c r="D190">
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190">
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="C191" s="2">
+      <c r="D191" s="2">
         <v>37</v>
       </c>
-      <c r="D191">
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191">
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="C192" s="2">
+      <c r="D192" s="2">
         <v>38</v>
       </c>
-      <c r="D192">
+      <c r="E192" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192">
         <v>470</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="1">
         <v>43475</v>
       </c>
-      <c r="C193" s="2">
+      <c r="D193" s="2">
         <v>1</v>
       </c>
-      <c r="D193">
+      <c r="E193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193">
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="C194" s="2">
+      <c r="D194" s="2">
         <v>2</v>
       </c>
-      <c r="D194">
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194">
         <v>453</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="C195" s="2">
+      <c r="D195" s="2">
         <v>3</v>
       </c>
-      <c r="D195">
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195">
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="C196" s="2">
+      <c r="D196" s="2">
         <v>4</v>
       </c>
-      <c r="D196">
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196">
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="C197" s="2">
+      <c r="D197" s="2">
         <v>5</v>
       </c>
-      <c r="D197">
+      <c r="E197" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197">
         <v>496</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="C198" s="2">
+      <c r="D198" s="2">
         <v>6</v>
       </c>
-      <c r="D198">
+      <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198">
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="C199" s="2">
+      <c r="D199" s="2">
         <v>7</v>
       </c>
-      <c r="D199">
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199">
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="C200" s="2">
+      <c r="D200" s="2">
         <v>8</v>
       </c>
-      <c r="D200">
+      <c r="E200" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200">
         <v>517</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="C201" s="2">
+      <c r="D201" s="2">
         <v>9</v>
       </c>
-      <c r="D201">
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201">
         <v>419</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="C202" s="2">
+      <c r="D202" s="2">
         <v>10</v>
       </c>
-      <c r="D202">
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202">
         <v>416</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="C203" s="2">
+      <c r="D203" s="2">
         <v>11</v>
       </c>
-      <c r="D203">
+      <c r="E203" t="s">
+        <v>26</v>
+      </c>
+      <c r="F203">
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="C204" s="2">
+      <c r="D204" s="2">
         <v>12</v>
       </c>
-      <c r="D204">
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204">
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="C205" s="2">
+      <c r="D205" s="2">
         <v>13</v>
       </c>
-      <c r="D205">
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205">
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="C206" s="2">
+      <c r="D206" s="2">
         <v>14</v>
       </c>
-      <c r="D206">
+      <c r="E206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206">
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="C207" s="2">
+      <c r="D207" s="2">
         <v>15</v>
       </c>
-      <c r="D207">
+      <c r="E207" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207">
         <v>538</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="C208" s="2">
+      <c r="D208" s="2">
         <v>16</v>
       </c>
-      <c r="D208">
+      <c r="E208" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208">
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="C209" s="2">
+      <c r="D209" s="2">
         <v>17</v>
       </c>
-      <c r="D209">
+      <c r="E209" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209">
         <v>453</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="C210" s="2">
+      <c r="D210" s="2">
         <v>18</v>
       </c>
-      <c r="D210">
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210">
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="C211" s="2">
+      <c r="D211" s="2">
         <v>19</v>
       </c>
-      <c r="D211">
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="C212" s="2">
+      <c r="D212" s="2">
         <v>20</v>
       </c>
-      <c r="D212">
+      <c r="E212" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="C213" s="2">
+      <c r="D213" s="2">
         <v>21</v>
       </c>
-      <c r="D213">
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213">
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="C214" s="2">
+      <c r="D214" s="2">
         <v>22</v>
       </c>
-      <c r="D214">
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214">
         <v>496</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="C215" s="2">
+      <c r="D215" s="2">
         <v>23</v>
       </c>
-      <c r="D215">
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215">
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="C216" s="2">
+      <c r="D216" s="2">
         <v>24</v>
       </c>
-      <c r="D216">
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216">
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="C217" s="2">
+      <c r="D217" s="2">
         <v>25</v>
       </c>
-      <c r="D217">
+      <c r="E217" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217">
         <v>419</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="C218" s="2">
+      <c r="D218" s="2">
         <v>26</v>
       </c>
-      <c r="D218">
+      <c r="E218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218">
         <v>517</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="C219" s="2">
+      <c r="D219" s="2">
         <v>27</v>
       </c>
-      <c r="D219">
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219">
         <v>538</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="C220" s="2">
+      <c r="D220" s="2">
         <v>28</v>
       </c>
-      <c r="D220">
+      <c r="E220" t="s">
+        <v>20</v>
+      </c>
+      <c r="F220">
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="C221" s="2">
+      <c r="D221" s="2">
         <v>29</v>
       </c>
-      <c r="D221">
+      <c r="E221" t="s">
+        <v>28</v>
+      </c>
+      <c r="F221">
         <v>430</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="C222" s="2">
+      <c r="D222" s="2">
         <v>30</v>
       </c>
-      <c r="D222">
+      <c r="E222" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222">
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="C223" s="2">
+      <c r="D223" s="2">
         <v>31</v>
       </c>
-      <c r="D223">
+      <c r="E223" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223">
         <v>538</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="C224" s="2">
+      <c r="D224" s="2">
         <v>32</v>
       </c>
-      <c r="D224">
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224">
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="C225" s="2">
+      <c r="D225" s="2">
         <v>33</v>
       </c>
-      <c r="D225">
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225">
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="C226" s="2">
+      <c r="D226" s="2">
         <v>34</v>
       </c>
-      <c r="D226">
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226">
         <v>470</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="C227" s="2">
+      <c r="D227" s="2">
         <v>35</v>
       </c>
-      <c r="D227">
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227">
         <v>416</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="C228" s="2">
+      <c r="D228" s="2">
         <v>36</v>
       </c>
-      <c r="D228">
+      <c r="E228" t="s">
+        <v>26</v>
+      </c>
+      <c r="F228">
         <v>410</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="C229" s="2">
+      <c r="D229" s="2">
         <v>37</v>
       </c>
-      <c r="D229">
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229">
         <v>496</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="C230" s="2">
+      <c r="D230" s="2">
         <v>38</v>
       </c>
-      <c r="D230">
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230">
         <v>405</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="C231" s="2">
+      <c r="D231" s="2">
         <v>39</v>
       </c>
-      <c r="D231">
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231">
         <v>486</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="C232" s="2">
+      <c r="D232" s="2">
         <v>40</v>
       </c>
-      <c r="D232">
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232">
         <v>419</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="C233" s="2">
+      <c r="D233" s="2">
         <v>41</v>
       </c>
-      <c r="D233">
+      <c r="E233" t="s">
+        <v>28</v>
+      </c>
+      <c r="F233">
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="C234" s="2">
+      <c r="D234" s="2">
         <v>42</v>
       </c>
-      <c r="D234">
+      <c r="E234" t="s">
+        <v>18</v>
+      </c>
+      <c r="F234">
         <v>470</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="C235" s="2">
+      <c r="D235" s="2">
         <v>43</v>
       </c>
-      <c r="D235">
+      <c r="E235" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235">
         <v>419</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="C236" s="2">
+      <c r="D236" s="2">
         <v>44</v>
       </c>
-      <c r="D236">
+      <c r="E236" t="s">
+        <v>25</v>
+      </c>
+      <c r="F236">
         <v>517</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="C237" s="2">
+      <c r="D237" s="2">
         <v>45</v>
       </c>
-      <c r="D237">
+      <c r="E237" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237">
         <v>538</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="C238" s="2">
+      <c r="D238" s="2">
         <v>46</v>
       </c>
-      <c r="D238">
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="1">
         <v>43476</v>
       </c>
-      <c r="C239" s="2">
+      <c r="D239" s="2">
         <v>1</v>
       </c>
-      <c r="D239">
+      <c r="E239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F239">
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="C240" s="2">
+      <c r="D240" s="2">
         <v>2</v>
       </c>
-      <c r="D240">
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240">
         <v>470</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="C241" s="2">
+      <c r="D241" s="2">
         <v>3</v>
       </c>
-      <c r="D241">
+      <c r="E241" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241">
         <v>420</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="C242" s="2">
+      <c r="D242" s="2">
         <v>4</v>
       </c>
-      <c r="D242">
+      <c r="E242" t="s">
+        <v>19</v>
+      </c>
+      <c r="F242">
         <v>538</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="C243" s="2">
+      <c r="D243" s="2">
         <v>5</v>
       </c>
-      <c r="D243">
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243">
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="C244" s="2">
+      <c r="D244" s="2">
         <v>6</v>
       </c>
-      <c r="D244">
+      <c r="E244" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244">
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="C245" s="2">
+      <c r="D245" s="2">
         <v>7</v>
       </c>
-      <c r="D245">
+      <c r="E245" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245">
         <v>470</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="C246" s="2">
+      <c r="D246" s="2">
         <v>8</v>
       </c>
-      <c r="D246">
+      <c r="E246" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246">
         <v>496</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="C247" s="2">
+      <c r="D247" s="2">
         <v>9</v>
       </c>
-      <c r="D247">
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247">
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="C248" s="2">
+      <c r="D248" s="2">
         <v>10</v>
       </c>
-      <c r="D248">
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248">
         <v>538</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="C249" s="2">
+      <c r="D249" s="2">
         <v>11</v>
       </c>
-      <c r="D249">
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249">
         <v>419</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="C250" s="2">
+      <c r="D250" s="2">
         <v>12</v>
       </c>
-      <c r="D250">
+      <c r="E250" t="s">
+        <v>28</v>
+      </c>
+      <c r="F250">
         <v>430</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="C251" s="2">
+      <c r="D251" s="2">
         <v>13</v>
       </c>
-      <c r="D251">
+      <c r="E251" t="s">
+        <v>20</v>
+      </c>
+      <c r="F251">
         <v>419</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="C252" s="2">
+      <c r="D252" s="2">
         <v>14</v>
       </c>
-      <c r="D252">
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252">
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="C253" s="2">
+      <c r="D253" s="2">
         <v>15</v>
       </c>
-      <c r="D253">
+      <c r="E253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253">
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="C254" s="2">
+      <c r="D254" s="2">
         <v>16</v>
       </c>
-      <c r="D254">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="C255" s="2">
+      <c r="D255" s="2">
         <v>17</v>
       </c>
-      <c r="D255">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255" t="s">
+        <v>18</v>
+      </c>
+      <c r="F255">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="C256" s="2">
+      <c r="D256" s="2">
         <v>18</v>
       </c>
-      <c r="D256">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="C257" s="2">
+      <c r="D257" s="2">
         <v>19</v>
       </c>
-      <c r="D257">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="C258" s="2">
+      <c r="D258" s="2">
         <v>20</v>
       </c>
-      <c r="D258">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258" t="s">
+        <v>26</v>
+      </c>
+      <c r="F258">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="C259" s="2">
+      <c r="D259" s="2">
         <v>21</v>
       </c>
-      <c r="D259">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="C260" s="2">
+      <c r="D260" s="2">
         <v>22</v>
       </c>
-      <c r="D260">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260" t="s">
+        <v>27</v>
+      </c>
+      <c r="F260">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="C261" s="2">
+      <c r="D261" s="2">
         <v>23</v>
       </c>
-      <c r="D261">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="C262" s="2">
+      <c r="D262" s="2">
         <v>24</v>
       </c>
-      <c r="D262">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262" t="s">
+        <v>28</v>
+      </c>
+      <c r="F262">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="C263" s="2">
+      <c r="D263" s="2">
         <v>25</v>
       </c>
-      <c r="D263">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263" t="s">
+        <v>20</v>
+      </c>
+      <c r="F263">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="C264" s="2">
+      <c r="D264" s="2">
         <v>26</v>
       </c>
-      <c r="D264">
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264">
         <v>470</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="C265" s="2">
+      <c r="D265" s="2">
         <v>27</v>
       </c>
-      <c r="D265">
+      <c r="E265" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265">
         <v>420</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="C266" s="2">
+      <c r="D266" s="2">
         <v>28</v>
       </c>
-      <c r="D266">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="C267" s="2">
+      <c r="D267" s="2">
         <v>29</v>
       </c>
-      <c r="D267">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="C268" s="2">
+      <c r="D268" s="2">
         <v>30</v>
       </c>
-      <c r="D268">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="C269" s="2">
+      <c r="D269" s="2">
         <v>31</v>
       </c>
-      <c r="D269">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+      <c r="F269">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="C270" s="2">
+      <c r="D270" s="2">
         <v>32</v>
       </c>
-      <c r="D270">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270" t="s">
+        <v>28</v>
+      </c>
+      <c r="F270">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="C271" s="2">
+      <c r="D271" s="2">
         <v>33</v>
       </c>
-      <c r="D271">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271" t="s">
+        <v>25</v>
+      </c>
+      <c r="F271">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="C272" s="2">
+      <c r="D272" s="2">
         <v>34</v>
       </c>
-      <c r="D272">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="C273" s="2">
+      <c r="D273" s="2">
         <v>35</v>
       </c>
-      <c r="D273">
+      <c r="E273" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273">
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="C274" s="2">
+      <c r="D274" s="2">
         <v>36</v>
       </c>
-      <c r="D274">
+      <c r="E274" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274">
         <v>453</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="C275" s="2">
+      <c r="D275" s="2">
         <v>37</v>
       </c>
-      <c r="D275">
+      <c r="E275" t="s">
+        <v>25</v>
+      </c>
+      <c r="F275">
         <v>470</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="C276" s="2">
+      <c r="D276" s="2">
         <v>38</v>
       </c>
-      <c r="D276">
+      <c r="E276" t="s">
+        <v>25</v>
+      </c>
+      <c r="F276">
         <v>405</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" s="1">
         <v>43477</v>
       </c>
-      <c r="C277" s="2">
+      <c r="D277" s="2">
         <v>1</v>
       </c>
-      <c r="D277">
+      <c r="E277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F277">
         <v>405</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="C278" s="2">
+      <c r="D278" s="2">
         <v>2</v>
       </c>
-      <c r="D278">
+      <c r="E278" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278">
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="C279" s="2">
+      <c r="D279" s="2">
         <v>3</v>
       </c>
-      <c r="D279">
+      <c r="E279" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279">
         <v>517</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="C280" s="2">
+      <c r="D280" s="2">
         <v>4</v>
       </c>
-      <c r="D280">
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280">
         <v>470</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="C281" s="2">
+      <c r="D281" s="2">
         <v>5</v>
       </c>
-      <c r="D281">
+      <c r="E281" t="s">
+        <v>27</v>
+      </c>
+      <c r="F281">
         <v>496</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="C282" s="2">
+      <c r="D282" s="2">
         <v>6</v>
       </c>
-      <c r="D282">
+      <c r="E282" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282">
         <v>416</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="C283" s="2">
+      <c r="D283" s="2">
         <v>7</v>
       </c>
-      <c r="D283">
+      <c r="E283" t="s">
+        <v>21</v>
+      </c>
+      <c r="F283">
         <v>538</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="C284" s="2">
+      <c r="D284" s="2">
         <v>8</v>
       </c>
-      <c r="D284">
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284">
         <v>419</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="C285" s="2">
+      <c r="D285" s="2">
         <v>9</v>
       </c>
-      <c r="D285">
+      <c r="E285" t="s">
+        <v>20</v>
+      </c>
+      <c r="F285">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="C286" s="2">
+      <c r="D286" s="2">
         <v>10</v>
       </c>
-      <c r="D286">
+      <c r="E286" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286">
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="C287" s="2">
+      <c r="D287" s="2">
         <v>11</v>
       </c>
-      <c r="D287">
+      <c r="E287" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287">
         <v>420</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="C288" s="2">
+      <c r="D288" s="2">
         <v>12</v>
       </c>
-      <c r="D288">
+      <c r="E288" t="s">
+        <v>23</v>
+      </c>
+      <c r="F288">
         <v>405</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="C289" s="2">
+      <c r="D289" s="2">
         <v>13</v>
       </c>
-      <c r="D289">
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289">
         <v>470</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="C290" s="2">
+      <c r="D290" s="2">
         <v>14</v>
       </c>
-      <c r="D290">
+      <c r="E290" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290">
         <v>416</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="C291" s="2">
+      <c r="D291" s="2">
         <v>15</v>
       </c>
-      <c r="D291">
+      <c r="E291" t="s">
+        <v>25</v>
+      </c>
+      <c r="F291">
         <v>419</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="C292" s="2">
+      <c r="D292" s="2">
         <v>16</v>
       </c>
-      <c r="D292">
+      <c r="E292" t="s">
+        <v>24</v>
+      </c>
+      <c r="F292">
         <v>517</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="C293" s="2">
+      <c r="D293" s="2">
         <v>17</v>
       </c>
-      <c r="D293">
+      <c r="E293" t="s">
+        <v>27</v>
+      </c>
+      <c r="F293">
         <v>496</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="C294" s="2">
+      <c r="D294" s="2">
         <v>18</v>
       </c>
-      <c r="D294">
+      <c r="E294" t="s">
+        <v>26</v>
+      </c>
+      <c r="F294">
         <v>410</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="C295" s="2">
+      <c r="D295" s="2">
         <v>19</v>
       </c>
-      <c r="D295">
+      <c r="E295" t="s">
+        <v>18</v>
+      </c>
+      <c r="F295">
         <v>470</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="C296" s="2">
+      <c r="D296" s="2">
         <v>20</v>
       </c>
-      <c r="D296">
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296">
         <v>538</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="C297" s="2">
+      <c r="D297" s="2">
         <v>21</v>
       </c>
-      <c r="D297">
+      <c r="E297" t="s">
+        <v>20</v>
+      </c>
+      <c r="F297">
         <v>419</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="C298" s="2">
+      <c r="D298" s="2">
         <v>22</v>
       </c>
-      <c r="D298">
+      <c r="E298" t="s">
+        <v>17</v>
+      </c>
+      <c r="F298">
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="C299" s="2">
+      <c r="D299" s="2">
         <v>23</v>
       </c>
-      <c r="D299">
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299">
         <v>419</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="C300" s="2">
+      <c r="D300" s="2">
         <v>24</v>
       </c>
-      <c r="D300">
+      <c r="E300" t="s">
+        <v>25</v>
+      </c>
+      <c r="F300">
         <v>420</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="C301" s="2">
+      <c r="D301" s="2">
         <v>25</v>
       </c>
-      <c r="D301">
+      <c r="E301" t="s">
+        <v>23</v>
+      </c>
+      <c r="F301">
         <v>405</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="C302" s="2">
+      <c r="D302" s="2">
         <v>26</v>
       </c>
-      <c r="D302">
+      <c r="E302" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302">
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="C303" s="2">
+      <c r="D303" s="2">
         <v>27</v>
       </c>
-      <c r="D303">
+      <c r="E303" t="s">
+        <v>11</v>
+      </c>
+      <c r="F303">
         <v>486</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="C304" s="2">
+      <c r="D304" s="2">
         <v>28</v>
       </c>
-      <c r="D304">
+      <c r="E304" t="s">
+        <v>14</v>
+      </c>
+      <c r="F304">
         <v>416</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="C305" s="2">
+      <c r="D305" s="2">
         <v>29</v>
       </c>
-      <c r="D305">
+      <c r="E305" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305">
         <v>538</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="C306" s="2">
+      <c r="D306" s="2">
         <v>30</v>
       </c>
-      <c r="D306">
+      <c r="E306" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306">
         <v>486</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="C307" s="2">
+      <c r="D307" s="2">
         <v>31</v>
       </c>
-      <c r="D307">
+      <c r="E307" t="s">
+        <v>18</v>
+      </c>
+      <c r="F307">
         <v>470</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="C308" s="2">
+      <c r="D308" s="2">
         <v>32</v>
       </c>
-      <c r="D308">
+      <c r="E308" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308">
         <v>419</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="C309" s="2">
+      <c r="D309" s="2">
         <v>33</v>
       </c>
-      <c r="D309">
+      <c r="E309" t="s">
+        <v>26</v>
+      </c>
+      <c r="F309">
         <v>410</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" s="1">
         <v>43478</v>
       </c>
-      <c r="C310" s="2">
+      <c r="D310" s="2">
         <v>1</v>
       </c>
-      <c r="D310">
+      <c r="E310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F310">
         <v>405</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="C311" s="2">
+      <c r="D311" s="2">
         <v>2</v>
       </c>
-      <c r="D311">
+      <c r="E311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311">
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="C312" s="2">
+      <c r="D312" s="2">
         <v>3</v>
       </c>
-      <c r="D312">
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312">
         <v>496</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="C313" s="2">
+      <c r="D313" s="2">
         <v>4</v>
       </c>
-      <c r="D313">
+      <c r="E313" t="s">
+        <v>14</v>
+      </c>
+      <c r="F313">
         <v>416</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="C314" s="2">
+      <c r="D314" s="2">
         <v>5</v>
       </c>
-      <c r="D314">
+      <c r="E314" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314">
         <v>470</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="C315" s="2">
+      <c r="D315" s="2">
         <v>6</v>
       </c>
-      <c r="D315">
+      <c r="E315" t="s">
+        <v>24</v>
+      </c>
+      <c r="F315">
         <v>517</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="C316" s="2">
+      <c r="D316" s="2">
         <v>7</v>
       </c>
-      <c r="D316">
+      <c r="E316" t="s">
+        <v>15</v>
+      </c>
+      <c r="F316">
         <v>420</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="C317" s="2">
+      <c r="D317" s="2">
         <v>8</v>
       </c>
-      <c r="D317">
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317">
         <v>486</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="C318" s="2">
+      <c r="D318" s="2">
         <v>9</v>
       </c>
-      <c r="D318">
+      <c r="E318" t="s">
+        <v>26</v>
+      </c>
+      <c r="F318">
         <v>410</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="C319" s="2">
+      <c r="D319" s="2">
         <v>10</v>
       </c>
-      <c r="D319">
+      <c r="E319" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319">
         <v>538</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="C320" s="2">
+      <c r="D320" s="2">
         <v>11</v>
       </c>
-      <c r="D320">
+      <c r="E320" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320">
         <v>430</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="C321" s="2">
+      <c r="D321" s="2">
         <v>12</v>
       </c>
-      <c r="D321">
+      <c r="E321" t="s">
+        <v>21</v>
+      </c>
+      <c r="F321">
         <v>538</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="C322" s="2">
+      <c r="D322" s="2">
         <v>13</v>
       </c>
-      <c r="D322">
+      <c r="E322" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322">
         <v>419</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="C323" s="2">
+      <c r="D323" s="2">
         <v>14</v>
       </c>
-      <c r="D323">
+      <c r="E323" t="s">
+        <v>18</v>
+      </c>
+      <c r="F323">
         <v>470</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="C324" s="2">
+      <c r="D324" s="2">
         <v>15</v>
       </c>
-      <c r="D324">
+      <c r="E324" t="s">
+        <v>20</v>
+      </c>
+      <c r="F324">
         <v>419</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="C325" s="2">
+      <c r="D325" s="2">
         <v>16</v>
       </c>
-      <c r="D325">
+      <c r="E325" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325">
         <v>470</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="C326" s="2">
+      <c r="D326" s="2">
         <v>17</v>
       </c>
-      <c r="D326">
+      <c r="E326" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326">
         <v>416</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="C327" s="2">
+      <c r="D327" s="2">
         <v>18</v>
       </c>
-      <c r="D327">
+      <c r="E327" t="s">
+        <v>23</v>
+      </c>
+      <c r="F327">
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="C328" s="2">
+      <c r="D328" s="2">
         <v>19</v>
       </c>
-      <c r="D328">
+      <c r="E328" t="s">
+        <v>11</v>
+      </c>
+      <c r="F328">
         <v>486</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="C329" s="2">
+      <c r="D329" s="2">
         <v>20</v>
       </c>
-      <c r="D329">
+      <c r="E329" t="s">
+        <v>15</v>
+      </c>
+      <c r="F329">
         <v>420</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="C330" s="2">
+      <c r="D330" s="2">
         <v>21</v>
       </c>
-      <c r="D330">
+      <c r="E330" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330">
         <v>430</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="C331" s="2">
+      <c r="D331" s="2">
         <v>22</v>
       </c>
-      <c r="D331">
+      <c r="E331" t="s">
+        <v>24</v>
+      </c>
+      <c r="F331">
         <v>517</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="C332" s="2">
+      <c r="D332" s="2">
         <v>23</v>
       </c>
-      <c r="D332">
+      <c r="E332" t="s">
+        <v>17</v>
+      </c>
+      <c r="F332">
         <v>500</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="C333" s="2">
+      <c r="D333" s="2">
         <v>24</v>
       </c>
-      <c r="D333">
+      <c r="E333" t="s">
+        <v>27</v>
+      </c>
+      <c r="F333">
         <v>496</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="C334" s="2">
+      <c r="D334" s="2">
         <v>25</v>
       </c>
-      <c r="D334">
+      <c r="E334" t="s">
+        <v>26</v>
+      </c>
+      <c r="F334">
         <v>410</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="C335" s="2">
+      <c r="D335" s="2">
         <v>26</v>
       </c>
-      <c r="D335">
+      <c r="E335" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335">
         <v>538</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="C336" s="2">
+      <c r="D336" s="2">
         <v>27</v>
       </c>
-      <c r="D336">
+      <c r="E336" t="s">
+        <v>18</v>
+      </c>
+      <c r="F336">
         <v>470</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="C337" s="2">
+      <c r="D337" s="2">
         <v>28</v>
       </c>
-      <c r="D337">
+      <c r="E337" t="s">
+        <v>20</v>
+      </c>
+      <c r="F337">
         <v>419</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="C338" s="2">
+      <c r="D338" s="2">
         <v>29</v>
       </c>
-      <c r="D338">
+      <c r="E338" t="s">
+        <v>21</v>
+      </c>
+      <c r="F338">
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="C339" s="2">
+      <c r="D339" s="2">
         <v>30</v>
       </c>
-      <c r="D339">
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339">
         <v>470</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="C340" s="2">
+      <c r="D340" s="2">
         <v>31</v>
       </c>
-      <c r="D340">
+      <c r="E340" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340">
         <v>419</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="C341" s="2">
+      <c r="D341" s="2">
         <v>32</v>
       </c>
-      <c r="D341">
+      <c r="E341" t="s">
+        <v>23</v>
+      </c>
+      <c r="F341">
         <v>405</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="C342" s="2">
+      <c r="D342" s="2">
         <v>33</v>
       </c>
-      <c r="D342">
+      <c r="E342" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342">
         <v>416</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="C343" s="2">
+      <c r="D343" s="2">
         <v>34</v>
       </c>
-      <c r="D343">
+      <c r="E343" t="s">
+        <v>15</v>
+      </c>
+      <c r="F343">
         <v>420</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="C344" s="2">
+      <c r="D344" s="2">
         <v>35</v>
       </c>
-      <c r="D344">
+      <c r="E344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F344">
         <v>486</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="C345" s="2">
+      <c r="D345" s="2">
         <v>36</v>
       </c>
-      <c r="D345">
+      <c r="E345" t="s">
+        <v>24</v>
+      </c>
+      <c r="F345">
         <v>517</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="C346" s="2">
+      <c r="D346" s="2">
         <v>37</v>
       </c>
-      <c r="D346">
+      <c r="E346" t="s">
+        <v>17</v>
+      </c>
+      <c r="F346">
         <v>500</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="C347" s="2">
+      <c r="D347" s="2">
         <v>38</v>
       </c>
-      <c r="D347">
+      <c r="E347" t="s">
+        <v>26</v>
+      </c>
+      <c r="F347">
         <v>410</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="C348" s="2">
+      <c r="D348" s="2">
         <v>39</v>
       </c>
-      <c r="D348">
+      <c r="E348" t="s">
+        <v>20</v>
+      </c>
+      <c r="F348">
         <v>419</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="C349" s="2">
+      <c r="D349" s="2">
         <v>40</v>
       </c>
-      <c r="D349">
+      <c r="E349" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349">
         <v>496</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="C350" s="2">
+      <c r="D350" s="2">
         <v>41</v>
       </c>
-      <c r="D350">
+      <c r="E350" t="s">
+        <v>18</v>
+      </c>
+      <c r="F350">
         <v>470</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="C351" s="2">
+      <c r="D351" s="2">
         <v>42</v>
       </c>
-      <c r="D351">
+      <c r="E351" t="s">
+        <v>19</v>
+      </c>
+      <c r="F351">
         <v>538</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="C352" s="2">
+      <c r="D352" s="2">
         <v>43</v>
       </c>
-      <c r="D352">
+      <c r="E352" t="s">
+        <v>28</v>
+      </c>
+      <c r="F352">
         <v>470</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="C353" s="2">
+      <c r="D353" s="2">
         <v>44</v>
       </c>
-      <c r="D353">
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353">
         <v>538</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="C354" s="2">
+      <c r="D354" s="2">
         <v>45</v>
       </c>
-      <c r="D354">
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354">
         <v>470</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" s="1">
         <v>43479</v>
       </c>
-      <c r="C355" s="2">
+      <c r="D355" s="2">
         <v>1</v>
       </c>
-      <c r="D355">
+      <c r="E355" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F355">
         <v>405</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="C356" s="2">
+      <c r="D356" s="2">
         <v>2</v>
       </c>
-      <c r="D356">
+      <c r="E356" t="s">
+        <v>12</v>
+      </c>
+      <c r="F356">
         <v>470</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="C357" s="2">
+      <c r="D357" s="2">
         <v>3</v>
       </c>
-      <c r="D357">
+      <c r="E357" t="s">
+        <v>15</v>
+      </c>
+      <c r="F357">
         <v>420</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="C358" s="2">
+      <c r="D358" s="2">
         <v>4</v>
       </c>
-      <c r="D358">
+      <c r="E358" t="s">
+        <v>11</v>
+      </c>
+      <c r="F358">
         <v>486</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="C359" s="2">
+      <c r="D359" s="2">
         <v>5</v>
       </c>
-      <c r="D359">
+      <c r="E359" t="s">
+        <v>27</v>
+      </c>
+      <c r="F359">
         <v>496</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="C360" s="2">
+      <c r="D360" s="2">
         <v>6</v>
       </c>
-      <c r="D360">
+      <c r="E360" t="s">
+        <v>13</v>
+      </c>
+      <c r="F360">
         <v>419</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="C361" s="2">
+      <c r="D361" s="2">
         <v>7</v>
       </c>
-      <c r="D361">
+      <c r="E361" t="s">
+        <v>26</v>
+      </c>
+      <c r="F361">
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="C362" s="2">
+      <c r="D362" s="2">
         <v>8</v>
       </c>
-      <c r="D362">
+      <c r="E362" t="s">
+        <v>19</v>
+      </c>
+      <c r="F362">
         <v>538</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="C363" s="2">
+      <c r="D363" s="2">
         <v>9</v>
       </c>
-      <c r="D363">
+      <c r="E363" t="s">
+        <v>28</v>
+      </c>
+      <c r="F363">
         <v>430</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="C364" s="2">
+      <c r="D364" s="2">
         <v>10</v>
       </c>
-      <c r="D364">
+      <c r="E364" t="s">
+        <v>12</v>
+      </c>
+      <c r="F364">
         <v>470</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="C365" s="2">
+      <c r="D365" s="2">
         <v>11</v>
       </c>
-      <c r="D365">
+      <c r="E365" t="s">
+        <v>11</v>
+      </c>
+      <c r="F365">
         <v>486</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="C366" s="2">
+      <c r="D366" s="2">
         <v>12</v>
       </c>
-      <c r="D366">
+      <c r="E366" t="s">
+        <v>23</v>
+      </c>
+      <c r="F366">
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="C367" s="2">
+      <c r="D367" s="2">
         <v>13</v>
       </c>
-      <c r="D367">
+      <c r="E367" t="s">
+        <v>13</v>
+      </c>
+      <c r="F367">
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="C368" s="2">
+      <c r="D368" s="2">
         <v>14</v>
       </c>
-      <c r="D368">
+      <c r="E368" t="s">
+        <v>26</v>
+      </c>
+      <c r="F368">
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="C369" s="2">
+      <c r="D369" s="2">
         <v>15</v>
       </c>
-      <c r="D369">
+      <c r="E369" t="s">
+        <v>17</v>
+      </c>
+      <c r="F369">
         <v>500</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="C370" s="2">
+      <c r="D370" s="2">
         <v>16</v>
       </c>
-      <c r="D370">
+      <c r="E370" t="s">
+        <v>15</v>
+      </c>
+      <c r="F370">
         <v>420</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="C371" s="2">
+      <c r="D371" s="2">
         <v>17</v>
       </c>
-      <c r="D371">
+      <c r="E371" t="s">
+        <v>29</v>
+      </c>
+      <c r="F371">
         <v>450</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="C372" s="2">
+      <c r="D372" s="2">
         <v>18</v>
       </c>
-      <c r="D372">
+      <c r="E372" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372">
         <v>538</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="C373" s="2">
+      <c r="D373" s="2">
         <v>19</v>
       </c>
-      <c r="D373">
+      <c r="E373" t="s">
+        <v>20</v>
+      </c>
+      <c r="F373">
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="C374" s="2">
+      <c r="D374" s="2">
         <v>20</v>
       </c>
-      <c r="D374">
+      <c r="E374" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374">
         <v>517</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="C375" s="2">
+      <c r="D375" s="2">
         <v>21</v>
       </c>
-      <c r="D375">
+      <c r="E375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F375">
         <v>496</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="C376" s="2">
+      <c r="D376" s="2">
         <v>22</v>
       </c>
-      <c r="D376">
+      <c r="E376" t="s">
+        <v>28</v>
+      </c>
+      <c r="F376">
         <v>430</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="C377" s="2">
+      <c r="D377" s="2">
         <v>23</v>
       </c>
-      <c r="D377">
+      <c r="E377" t="s">
+        <v>13</v>
+      </c>
+      <c r="F377">
         <v>419</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="C378" s="2">
+      <c r="D378" s="2">
         <v>24</v>
       </c>
-      <c r="D378">
+      <c r="E378" t="s">
+        <v>25</v>
+      </c>
+      <c r="F378">
         <v>470</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="C379" s="2">
+      <c r="D379" s="2">
         <v>25</v>
       </c>
-      <c r="D379">
+      <c r="E379" t="s">
+        <v>12</v>
+      </c>
+      <c r="F379">
         <v>470</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="C380" s="2">
+      <c r="D380" s="2">
         <v>26</v>
       </c>
-      <c r="D380">
+      <c r="E380" t="s">
+        <v>26</v>
+      </c>
+      <c r="F380">
         <v>410</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="C381" s="2">
+      <c r="D381" s="2">
         <v>27</v>
       </c>
-      <c r="D381">
+      <c r="E381" t="s">
+        <v>29</v>
+      </c>
+      <c r="F381">
         <v>450</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="C382" s="2">
+      <c r="D382" s="2">
         <v>28</v>
       </c>
-      <c r="D382">
+      <c r="E382" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382">
         <v>405</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="C383" s="2">
+      <c r="D383" s="2">
         <v>29</v>
       </c>
-      <c r="D383">
+      <c r="E383" t="s">
+        <v>15</v>
+      </c>
+      <c r="F383">
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="C384" s="2">
+      <c r="D384" s="2">
         <v>30</v>
       </c>
-      <c r="D384">
+      <c r="E384" t="s">
+        <v>11</v>
+      </c>
+      <c r="F384">
         <v>486</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="C385" s="2">
+      <c r="D385" s="2">
         <v>31</v>
       </c>
-      <c r="D385">
+      <c r="E385" t="s">
+        <v>19</v>
+      </c>
+      <c r="F385">
         <v>538</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="C386" s="2">
+      <c r="D386" s="2">
         <v>32</v>
       </c>
-      <c r="D386">
+      <c r="E386" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386">
         <v>419</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="C387" s="2">
+      <c r="D387" s="2">
         <v>33</v>
       </c>
-      <c r="D387">
+      <c r="E387" t="s">
+        <v>28</v>
+      </c>
+      <c r="F387">
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="C388" s="2">
+      <c r="D388" s="2">
         <v>34</v>
       </c>
-      <c r="D388">
+      <c r="E388" t="s">
+        <v>27</v>
+      </c>
+      <c r="F388">
         <v>416</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="C389" t="s">
+    <row r="389" spans="1:6">
+      <c r="D389" t="s">
         <v>3</v>
       </c>
-      <c r="D389">
-        <f>SUM(D2:D388)</f>
-        <v>178474</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="F389">
+        <f>SUM(F2:F388)</f>
+        <v>178399</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="B390" t="s">
         <v>0</v>
       </c>
-      <c r="C390" t="s">
+      <c r="D390" t="s">
         <v>5</v>
       </c>
-      <c r="D390">
-        <v>758514.5</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="C391" t="s">
+      <c r="F390">
+        <v>758195.75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="D391" t="s">
         <v>2</v>
       </c>
-      <c r="D391">
+      <c r="F391">
         <v>365000</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:6">
       <c r="B392" t="s">
         <v>1</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" t="s">
         <v>4</v>
       </c>
-      <c r="D392">
-        <v>393514</v>
+      <c r="F392">
+        <v>393195.75</v>
       </c>
     </row>
   </sheetData>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -444,5527 +444,5526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F392"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="E389" sqref="E389"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43466</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="E12">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="E14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>43469</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>43470</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="F27">
+      <c r="E27">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="F30">
+      <c r="E30">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="F31">
+      <c r="E31">
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
         <v>20</v>
       </c>
-      <c r="F34">
+      <c r="E34">
         <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <v>13</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="E39">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>17</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>18</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="F42">
+      <c r="E42">
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>20</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="F44">
+      <c r="E44">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>21</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>24</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>23</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48">
+      <c r="C48">
         <v>24</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>21</v>
       </c>
-      <c r="F48">
+      <c r="E48">
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49">
+      <c r="C49">
         <v>25</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="F49">
+      <c r="E49">
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <v>26</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="F50">
+      <c r="E50">
         <v>453</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51">
+      <c r="C51">
         <v>27</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="F51">
+      <c r="E51">
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52">
+      <c r="C52">
         <v>28</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>23</v>
       </c>
-      <c r="F52">
+      <c r="E52">
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53">
+      <c r="C53">
         <v>29</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="F53">
+      <c r="E53">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54">
+      <c r="C54">
         <v>30</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="F54">
+      <c r="E54">
         <v>486</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55">
+      <c r="C55">
         <v>31</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>20</v>
       </c>
-      <c r="F55">
+      <c r="E55">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>43471</v>
       </c>
-      <c r="D56" s="2">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56">
+      <c r="E56">
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="2">
+      <c r="C57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="F57">
+      <c r="E57">
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="2">
+      <c r="C58" s="2">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>24</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="2">
+      <c r="C59" s="2">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="2">
+      <c r="C60" s="2">
         <v>5</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="2">
+      <c r="C61" s="2">
         <v>6</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
         <v>21</v>
       </c>
-      <c r="F61">
+      <c r="E61">
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="2">
+      <c r="C62" s="2">
         <v>7</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
         <v>13</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="2">
+      <c r="C63" s="2">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="2">
+      <c r="C64" s="2">
         <v>9</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
         <v>20</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="2">
+      <c r="C65" s="2">
         <v>10</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="2">
+      <c r="C66" s="2">
         <v>11</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>538</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="2">
+      <c r="C67" s="2">
         <v>12</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>21</v>
       </c>
-      <c r="F67">
+      <c r="E67">
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="2">
+      <c r="C68" s="2">
         <v>13</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
         <v>13</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="2">
+      <c r="C69" s="2">
         <v>14</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
         <v>24</v>
       </c>
-      <c r="F69">
+      <c r="E69">
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="2">
+      <c r="C70" s="2">
         <v>15</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="F70">
+      <c r="E70">
         <v>453</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="2">
+      <c r="C71" s="2">
         <v>16</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>20</v>
       </c>
-      <c r="F71">
+      <c r="E71">
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="2">
+      <c r="C72" s="2">
         <v>17</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
         <v>12</v>
       </c>
-      <c r="F72">
+      <c r="E72">
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="2">
+      <c r="C73" s="2">
         <v>18</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="F73">
+      <c r="E73">
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="2">
+      <c r="C74" s="2">
         <v>19</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
         <v>17</v>
       </c>
-      <c r="F74">
+      <c r="E74">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="2">
+      <c r="C75" s="2">
         <v>20</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="F75">
+      <c r="E75">
         <v>538</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="2">
+      <c r="C76" s="2">
         <v>21</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>24</v>
       </c>
-      <c r="F76">
+      <c r="E76">
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="2">
+      <c r="C77" s="2">
         <v>22</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>20</v>
       </c>
-      <c r="F77">
+      <c r="E77">
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="2">
+      <c r="C78" s="2">
         <v>23</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>19</v>
       </c>
-      <c r="F78">
+      <c r="E78">
         <v>538</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="2">
+      <c r="C79" s="2">
         <v>24</v>
       </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
         <v>25</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="2">
+      <c r="C80" s="2">
         <v>25</v>
       </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="F80">
+      <c r="E80">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="2">
+      <c r="C81" s="2">
         <v>26</v>
       </c>
-      <c r="E81" t="s">
+      <c r="D81" t="s">
         <v>25</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="2">
+      <c r="C82" s="2">
         <v>27</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" t="s">
         <v>25</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>538</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>43472</v>
       </c>
-      <c r="D83" s="2">
+      <c r="C83" s="2">
         <v>1</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="2">
+      <c r="C84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="2">
+      <c r="C85" s="2">
         <v>3</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="2">
+      <c r="C86" s="2">
         <v>4</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" t="s">
         <v>24</v>
       </c>
-      <c r="F86">
+      <c r="E86">
         <v>517</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="2">
+      <c r="C87" s="2">
         <v>5</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
         <v>21</v>
       </c>
-      <c r="F87">
+      <c r="E87">
         <v>538</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="2">
+      <c r="C88" s="2">
         <v>6</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" t="s">
         <v>19</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="2">
+      <c r="C89" s="2">
         <v>7</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" t="s">
         <v>12</v>
       </c>
-      <c r="F89">
+      <c r="E89">
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="2">
+      <c r="C90" s="2">
         <v>8</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" t="s">
         <v>18</v>
       </c>
-      <c r="F90">
+      <c r="E90">
         <v>470</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="2">
+      <c r="C91" s="2">
         <v>9</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
         <v>25</v>
       </c>
-      <c r="F91">
+      <c r="E91">
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="2">
+      <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
         <v>16</v>
       </c>
-      <c r="F92">
+      <c r="E92">
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="2">
+      <c r="C93" s="2">
         <v>11</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="F93">
+      <c r="E93">
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="2">
+      <c r="C94" s="2">
         <v>12</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="F94">
+      <c r="E94">
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="2">
+      <c r="C95" s="2">
         <v>13</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" t="s">
         <v>20</v>
       </c>
-      <c r="F95">
+      <c r="E95">
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="2">
+      <c r="C96" s="2">
         <v>14</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" t="s">
         <v>23</v>
       </c>
-      <c r="F96">
+      <c r="E96">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="2">
+      <c r="C97" s="2">
         <v>15</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>13</v>
       </c>
-      <c r="F97">
+      <c r="E97">
         <v>419</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="2">
+      <c r="C98" s="2">
         <v>16</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" t="s">
         <v>18</v>
       </c>
-      <c r="F98">
+      <c r="E98">
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="2">
+      <c r="C99" s="2">
         <v>17</v>
       </c>
-      <c r="E99" t="s">
+      <c r="D99" t="s">
         <v>12</v>
       </c>
-      <c r="F99">
+      <c r="E99">
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="2">
+      <c r="C100" s="2">
         <v>18</v>
       </c>
-      <c r="E100" t="s">
+      <c r="D100" t="s">
         <v>21</v>
       </c>
-      <c r="F100">
+      <c r="E100">
         <v>538</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="2">
+      <c r="C101" s="2">
         <v>19</v>
       </c>
-      <c r="E101" t="s">
+      <c r="D101" t="s">
         <v>16</v>
       </c>
-      <c r="F101">
+      <c r="E101">
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="2">
+      <c r="C102" s="2">
         <v>20</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" t="s">
         <v>11</v>
       </c>
-      <c r="F102">
+      <c r="E102">
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="2">
+      <c r="C103" s="2">
         <v>21</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" t="s">
         <v>15</v>
       </c>
-      <c r="F103">
+      <c r="E103">
         <v>420</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="2">
+      <c r="C104" s="2">
         <v>22</v>
       </c>
-      <c r="E104" t="s">
+      <c r="D104" t="s">
         <v>24</v>
       </c>
-      <c r="F104">
+      <c r="E104">
         <v>517</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="2">
+      <c r="C105" s="2">
         <v>23</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" t="s">
         <v>23</v>
       </c>
-      <c r="F105">
+      <c r="E105">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="2">
+      <c r="C106" s="2">
         <v>24</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" t="s">
         <v>18</v>
       </c>
-      <c r="F106">
+      <c r="E106">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="2">
+      <c r="C107" s="2">
         <v>25</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D107" t="s">
         <v>13</v>
       </c>
-      <c r="F107">
+      <c r="E107">
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="2">
+      <c r="C108" s="2">
         <v>26</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" t="s">
         <v>12</v>
       </c>
-      <c r="F108">
+      <c r="E108">
         <v>470</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="2">
+      <c r="C109" s="2">
         <v>27</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" t="s">
         <v>21</v>
       </c>
-      <c r="F109">
+      <c r="E109">
         <v>538</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="2">
+      <c r="C110" s="2">
         <v>28</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" t="s">
         <v>19</v>
       </c>
-      <c r="F110">
+      <c r="E110">
         <v>538</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="2">
+      <c r="C111" s="2">
         <v>29</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
         <v>16</v>
       </c>
-      <c r="F111">
+      <c r="E111">
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="2">
+      <c r="C112" s="2">
         <v>30</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" t="s">
         <v>20</v>
       </c>
-      <c r="F112">
+      <c r="E112">
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="2">
+      <c r="C113" s="2">
         <v>31</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" t="s">
         <v>25</v>
       </c>
-      <c r="F113">
+      <c r="E113">
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="2">
+      <c r="C114" s="2">
         <v>32</v>
       </c>
-      <c r="E114" t="s">
+      <c r="D114" t="s">
         <v>25</v>
       </c>
-      <c r="F114">
+      <c r="E114">
         <v>486</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>43473</v>
       </c>
-      <c r="D115" s="2">
+      <c r="C115" s="2">
         <v>1</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F115">
+      <c r="E115">
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="2">
+      <c r="C116" s="2">
         <v>2</v>
       </c>
-      <c r="E116" t="s">
+      <c r="D116" t="s">
         <v>15</v>
       </c>
-      <c r="F116">
+      <c r="E116">
         <v>420</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="2">
+      <c r="C117" s="2">
         <v>3</v>
       </c>
-      <c r="E117" t="s">
+      <c r="D117" t="s">
         <v>24</v>
       </c>
-      <c r="F117">
+      <c r="E117">
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="2">
+      <c r="C118" s="2">
         <v>4</v>
       </c>
-      <c r="E118" t="s">
+      <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="F118">
+      <c r="E118">
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="2">
+      <c r="C119" s="2">
         <v>5</v>
       </c>
-      <c r="E119" t="s">
+      <c r="D119" t="s">
         <v>26</v>
       </c>
-      <c r="F119">
+      <c r="E119">
         <v>410</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="2">
+      <c r="C120" s="2">
         <v>6</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D120" t="s">
         <v>12</v>
       </c>
-      <c r="F120">
+      <c r="E120">
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="2">
+      <c r="C121" s="2">
         <v>7</v>
       </c>
-      <c r="E121" t="s">
+      <c r="D121" t="s">
         <v>18</v>
       </c>
-      <c r="F121">
+      <c r="E121">
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="2">
+      <c r="C122" s="2">
         <v>8</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D122" t="s">
         <v>11</v>
       </c>
-      <c r="F122">
+      <c r="E122">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="2">
+      <c r="C123" s="2">
         <v>9</v>
       </c>
-      <c r="E123" t="s">
+      <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="F123">
+      <c r="E123">
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="2">
+      <c r="C124" s="2">
         <v>10</v>
       </c>
-      <c r="E124" t="s">
+      <c r="D124" t="s">
         <v>19</v>
       </c>
-      <c r="F124">
+      <c r="E124">
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="2">
+      <c r="C125" s="2">
         <v>11</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" t="s">
         <v>21</v>
       </c>
-      <c r="F125">
+      <c r="E125">
         <v>538</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="2">
+      <c r="C126" s="2">
         <v>12</v>
       </c>
-      <c r="E126" t="s">
+      <c r="D126" t="s">
         <v>20</v>
       </c>
-      <c r="F126">
+      <c r="E126">
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="2">
+      <c r="C127" s="2">
         <v>13</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D127" t="s">
         <v>16</v>
       </c>
-      <c r="F127">
+      <c r="E127">
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="2">
+      <c r="C128" s="2">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
+      <c r="D128" t="s">
         <v>23</v>
       </c>
-      <c r="F128">
+      <c r="E128">
         <v>405</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="2">
+      <c r="C129" s="2">
         <v>15</v>
       </c>
-      <c r="E129" t="s">
+      <c r="D129" t="s">
         <v>15</v>
       </c>
-      <c r="F129">
+      <c r="E129">
         <v>420</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="2">
+      <c r="C130" s="2">
         <v>16</v>
       </c>
-      <c r="E130" t="s">
+      <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="F130">
+      <c r="E130">
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="2">
+      <c r="C131" s="2">
         <v>17</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" t="s">
         <v>24</v>
       </c>
-      <c r="F131">
+      <c r="E131">
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="D132" s="2">
+      <c r="C132" s="2">
         <v>18</v>
       </c>
-      <c r="E132" t="s">
+      <c r="D132" t="s">
         <v>18</v>
       </c>
-      <c r="F132">
+      <c r="E132">
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="D133" s="2">
+      <c r="C133" s="2">
         <v>19</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" t="s">
         <v>17</v>
       </c>
-      <c r="F133">
+      <c r="E133">
         <v>500</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="D134" s="2">
+      <c r="C134" s="2">
         <v>20</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" t="s">
         <v>11</v>
       </c>
-      <c r="F134">
+      <c r="E134">
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="D135" s="2">
+      <c r="C135" s="2">
         <v>21</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" t="s">
         <v>12</v>
       </c>
-      <c r="F135">
+      <c r="E135">
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="D136" s="2">
+      <c r="C136" s="2">
         <v>22</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" t="s">
         <v>26</v>
       </c>
-      <c r="F136">
+      <c r="E136">
         <v>410</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="D137" s="2">
+      <c r="C137" s="2">
         <v>23</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D137" t="s">
         <v>21</v>
       </c>
-      <c r="F137">
+      <c r="E137">
         <v>538</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="D138" s="2">
+      <c r="C138" s="2">
         <v>24</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D138" t="s">
         <v>19</v>
       </c>
-      <c r="F138">
+      <c r="E138">
         <v>538</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="D139" s="2">
+      <c r="C139" s="2">
         <v>25</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D139" t="s">
         <v>20</v>
       </c>
-      <c r="F139">
+      <c r="E139">
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="D140" s="2">
+      <c r="C140" s="2">
         <v>26</v>
       </c>
-      <c r="E140" t="s">
+      <c r="D140" t="s">
         <v>16</v>
       </c>
-      <c r="F140">
+      <c r="E140">
         <v>453</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="D141" s="2">
+      <c r="C141" s="2">
         <v>27</v>
       </c>
-      <c r="E141" t="s">
+      <c r="D141" t="s">
         <v>13</v>
       </c>
-      <c r="F141">
+      <c r="E141">
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="D142" s="2">
+      <c r="C142" s="2">
         <v>28</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D142" t="s">
         <v>23</v>
       </c>
-      <c r="F142">
+      <c r="E142">
         <v>405</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="D143" s="2">
+      <c r="C143" s="2">
         <v>29</v>
       </c>
-      <c r="E143" t="s">
+      <c r="D143" t="s">
         <v>15</v>
       </c>
-      <c r="F143">
+      <c r="E143">
         <v>420</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="D144" s="2">
+      <c r="C144" s="2">
         <v>30</v>
       </c>
-      <c r="E144" t="s">
+      <c r="D144" t="s">
         <v>14</v>
       </c>
-      <c r="F144">
+      <c r="E144">
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="D145" s="2">
+      <c r="C145" s="2">
         <v>31</v>
       </c>
-      <c r="E145" t="s">
+      <c r="D145" t="s">
         <v>18</v>
       </c>
-      <c r="F145">
+      <c r="E145">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="D146" s="2">
+      <c r="C146" s="2">
         <v>32</v>
       </c>
-      <c r="E146" t="s">
+      <c r="D146" t="s">
         <v>24</v>
       </c>
-      <c r="F146">
+      <c r="E146">
         <v>517</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="D147" s="2">
+      <c r="C147" s="2">
         <v>33</v>
       </c>
-      <c r="E147" t="s">
+      <c r="D147" t="s">
         <v>12</v>
       </c>
-      <c r="F147">
+      <c r="E147">
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="D148" s="2">
+      <c r="C148" s="2">
         <v>34</v>
       </c>
-      <c r="E148" t="s">
+      <c r="D148" t="s">
         <v>17</v>
       </c>
-      <c r="F148">
+      <c r="E148">
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="D149" s="2">
+      <c r="C149" s="2">
         <v>35</v>
       </c>
-      <c r="E149" t="s">
+      <c r="D149" t="s">
         <v>20</v>
       </c>
-      <c r="F149">
+      <c r="E149">
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="D150" s="2">
+      <c r="C150" s="2">
         <v>36</v>
       </c>
-      <c r="E150" t="s">
+      <c r="D150" t="s">
         <v>11</v>
       </c>
-      <c r="F150">
+      <c r="E150">
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="D151" s="2">
+      <c r="C151" s="2">
         <v>37</v>
       </c>
-      <c r="E151" t="s">
+      <c r="D151" t="s">
         <v>26</v>
       </c>
-      <c r="F151">
+      <c r="E151">
         <v>410</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="D152" s="2">
+      <c r="C152" s="2">
         <v>38</v>
       </c>
-      <c r="E152" t="s">
+      <c r="D152" t="s">
         <v>25</v>
       </c>
-      <c r="F152">
+      <c r="E152">
         <v>419</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="D153" s="2">
+      <c r="C153" s="2">
         <v>39</v>
       </c>
-      <c r="E153" t="s">
+      <c r="D153" t="s">
         <v>19</v>
       </c>
-      <c r="F153">
+      <c r="E153">
         <v>538</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="D154" s="2">
+      <c r="C154" s="2">
         <v>40</v>
       </c>
-      <c r="E154" t="s">
+      <c r="D154" t="s">
         <v>25</v>
       </c>
-      <c r="F154">
+      <c r="E154">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="1">
         <v>43474</v>
       </c>
-      <c r="D155" s="2">
+      <c r="C155" s="2">
         <v>1</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F155">
+      <c r="E155">
         <v>420</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="D156" s="2">
+      <c r="C156" s="2">
         <v>2</v>
       </c>
-      <c r="E156" t="s">
+      <c r="D156" t="s">
         <v>23</v>
       </c>
-      <c r="F156">
+      <c r="E156">
         <v>405</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="D157" s="2">
+      <c r="C157" s="2">
         <v>3</v>
       </c>
-      <c r="E157" t="s">
+      <c r="D157" t="s">
         <v>14</v>
       </c>
-      <c r="F157">
+      <c r="E157">
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="D158" s="2">
+      <c r="C158" s="2">
         <v>4</v>
       </c>
-      <c r="E158" t="s">
+      <c r="D158" t="s">
         <v>24</v>
       </c>
-      <c r="F158">
+      <c r="E158">
         <v>517</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="D159" s="2">
+      <c r="C159" s="2">
         <v>5</v>
       </c>
-      <c r="E159" t="s">
+      <c r="D159" t="s">
         <v>27</v>
       </c>
-      <c r="F159">
+      <c r="E159">
         <v>496</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="D160" s="2">
+      <c r="C160" s="2">
         <v>6</v>
       </c>
-      <c r="E160" t="s">
+      <c r="D160" t="s">
         <v>18</v>
       </c>
-      <c r="F160">
+      <c r="E160">
         <v>470</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="D161" s="2">
+      <c r="C161" s="2">
         <v>7</v>
       </c>
-      <c r="E161" t="s">
+      <c r="D161" t="s">
         <v>26</v>
       </c>
-      <c r="F161">
+      <c r="E161">
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="D162" s="2">
+      <c r="C162" s="2">
         <v>8</v>
       </c>
-      <c r="E162" t="s">
+      <c r="D162" t="s">
         <v>21</v>
       </c>
-      <c r="F162">
+      <c r="E162">
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="D163" s="2">
+      <c r="C163" s="2">
         <v>9</v>
       </c>
-      <c r="E163" t="s">
+      <c r="D163" t="s">
         <v>11</v>
       </c>
-      <c r="F163">
+      <c r="E163">
         <v>486</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="D164" s="2">
+      <c r="C164" s="2">
         <v>10</v>
       </c>
-      <c r="E164" t="s">
+      <c r="D164" t="s">
         <v>16</v>
       </c>
-      <c r="F164">
+      <c r="E164">
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="D165" s="2">
+      <c r="C165" s="2">
         <v>11</v>
       </c>
-      <c r="E165" t="s">
+      <c r="D165" t="s">
         <v>12</v>
       </c>
-      <c r="F165">
+      <c r="E165">
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="D166" s="2">
+      <c r="C166" s="2">
         <v>12</v>
       </c>
-      <c r="E166" t="s">
+      <c r="D166" t="s">
         <v>19</v>
       </c>
-      <c r="F166">
+      <c r="E166">
         <v>538</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="D167" s="2">
+      <c r="C167" s="2">
         <v>13</v>
       </c>
-      <c r="E167" t="s">
+      <c r="D167" t="s">
         <v>25</v>
       </c>
-      <c r="F167">
+      <c r="E167">
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="D168" s="2">
+      <c r="C168" s="2">
         <v>14</v>
       </c>
-      <c r="E168" t="s">
+      <c r="D168" t="s">
         <v>13</v>
       </c>
-      <c r="F168">
+      <c r="E168">
         <v>419</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="D169" s="2">
+      <c r="C169" s="2">
         <v>15</v>
       </c>
-      <c r="E169" t="s">
+      <c r="D169" t="s">
         <v>28</v>
       </c>
-      <c r="F169">
+      <c r="E169">
         <v>430</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="D170" s="2">
+      <c r="C170" s="2">
         <v>16</v>
       </c>
-      <c r="E170" t="s">
+      <c r="D170" t="s">
         <v>20</v>
       </c>
-      <c r="F170">
+      <c r="E170">
         <v>419</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="D171" s="2">
+      <c r="C171" s="2">
         <v>17</v>
       </c>
-      <c r="E171" t="s">
+      <c r="D171" t="s">
         <v>15</v>
       </c>
-      <c r="F171">
+      <c r="E171">
         <v>420</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="D172" s="2">
+      <c r="C172" s="2">
         <v>18</v>
       </c>
-      <c r="E172" t="s">
+      <c r="D172" t="s">
         <v>17</v>
       </c>
-      <c r="F172">
+      <c r="E172">
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="D173" s="2">
+      <c r="C173" s="2">
         <v>19</v>
       </c>
-      <c r="E173" t="s">
+      <c r="D173" t="s">
         <v>23</v>
       </c>
-      <c r="F173">
+      <c r="E173">
         <v>405</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="D174" s="2">
+      <c r="C174" s="2">
         <v>20</v>
       </c>
-      <c r="E174" t="s">
+      <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="F174">
+      <c r="E174">
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="D175" s="2">
+      <c r="C175" s="2">
         <v>21</v>
       </c>
-      <c r="E175" t="s">
+      <c r="D175" t="s">
         <v>18</v>
       </c>
-      <c r="F175">
+      <c r="E175">
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="D176" s="2">
+      <c r="C176" s="2">
         <v>22</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D176" t="s">
         <v>24</v>
       </c>
-      <c r="F176">
+      <c r="E176">
         <v>513</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="D177" s="2">
+      <c r="C177" s="2">
         <v>23</v>
       </c>
-      <c r="E177" t="s">
+      <c r="D177" t="s">
         <v>21</v>
       </c>
-      <c r="F177">
+      <c r="E177">
         <v>538</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="D178" s="2">
+      <c r="C178" s="2">
         <v>24</v>
       </c>
-      <c r="E178" t="s">
+      <c r="D178" t="s">
         <v>12</v>
       </c>
-      <c r="F178">
+      <c r="E178">
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="D179" s="2">
+      <c r="C179" s="2">
         <v>25</v>
       </c>
-      <c r="E179" t="s">
+      <c r="D179" t="s">
         <v>11</v>
       </c>
-      <c r="F179">
+      <c r="E179">
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="D180" s="2">
+      <c r="C180" s="2">
         <v>26</v>
       </c>
-      <c r="E180" t="s">
+      <c r="D180" t="s">
         <v>16</v>
       </c>
-      <c r="F180">
+      <c r="E180">
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="D181" s="2">
+      <c r="C181" s="2">
         <v>27</v>
       </c>
-      <c r="E181" t="s">
+      <c r="D181" t="s">
         <v>25</v>
       </c>
-      <c r="F181">
+      <c r="E181">
         <v>419</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="D182" s="2">
+      <c r="C182" s="2">
         <v>28</v>
       </c>
-      <c r="E182" t="s">
+      <c r="D182" t="s">
         <v>27</v>
       </c>
-      <c r="F182">
+      <c r="E182">
         <v>496</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="D183" s="2">
+      <c r="C183" s="2">
         <v>29</v>
       </c>
-      <c r="E183" t="s">
+      <c r="D183" t="s">
         <v>19</v>
       </c>
-      <c r="F183">
+      <c r="E183">
         <v>538</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="D184" s="2">
+      <c r="C184" s="2">
         <v>30</v>
       </c>
-      <c r="E184" t="s">
+      <c r="D184" t="s">
         <v>20</v>
       </c>
-      <c r="F184">
+      <c r="E184">
         <v>419</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="D185" s="2">
+      <c r="C185" s="2">
         <v>31</v>
       </c>
-      <c r="E185" t="s">
+      <c r="D185" t="s">
         <v>26</v>
       </c>
-      <c r="F185">
+      <c r="E185">
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="D186" s="2">
+      <c r="C186" s="2">
         <v>32</v>
       </c>
-      <c r="E186" t="s">
+      <c r="D186" t="s">
         <v>14</v>
       </c>
-      <c r="F186">
+      <c r="E186">
         <v>416</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="D187" s="2">
+      <c r="C187" s="2">
         <v>33</v>
       </c>
-      <c r="E187" t="s">
+      <c r="D187" t="s">
         <v>18</v>
       </c>
-      <c r="F187">
+      <c r="E187">
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="D188" s="2">
+      <c r="C188" s="2">
         <v>34</v>
       </c>
-      <c r="E188" t="s">
+      <c r="D188" t="s">
         <v>24</v>
       </c>
-      <c r="F188">
+      <c r="E188">
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="D189" s="2">
+      <c r="C189" s="2">
         <v>35</v>
       </c>
-      <c r="E189" t="s">
+      <c r="D189" t="s">
         <v>23</v>
       </c>
-      <c r="F189">
+      <c r="E189">
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="D190" s="2">
+      <c r="C190" s="2">
         <v>36</v>
       </c>
-      <c r="E190" t="s">
+      <c r="D190" t="s">
         <v>17</v>
       </c>
-      <c r="F190">
+      <c r="E190">
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="D191" s="2">
+      <c r="C191" s="2">
         <v>37</v>
       </c>
-      <c r="E191" t="s">
+      <c r="D191" t="s">
         <v>28</v>
       </c>
-      <c r="F191">
+      <c r="E191">
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="D192" s="2">
+      <c r="C192" s="2">
         <v>38</v>
       </c>
-      <c r="E192" t="s">
+      <c r="D192" t="s">
         <v>25</v>
       </c>
-      <c r="F192">
+      <c r="E192">
         <v>470</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="1">
         <v>43475</v>
       </c>
-      <c r="D193" s="2">
+      <c r="C193" s="2">
         <v>1</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F193">
+      <c r="E193">
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="D194" s="2">
+      <c r="C194" s="2">
         <v>2</v>
       </c>
-      <c r="E194" t="s">
+      <c r="D194" t="s">
         <v>16</v>
       </c>
-      <c r="F194">
+      <c r="E194">
         <v>453</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="D195" s="2">
+      <c r="C195" s="2">
         <v>3</v>
       </c>
-      <c r="E195" t="s">
+      <c r="D195" t="s">
         <v>15</v>
       </c>
-      <c r="F195">
+      <c r="E195">
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="D196" s="2">
+      <c r="C196" s="2">
         <v>4</v>
       </c>
-      <c r="E196" t="s">
+      <c r="D196" t="s">
         <v>12</v>
       </c>
-      <c r="F196">
+      <c r="E196">
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="D197" s="2">
+      <c r="C197" s="2">
         <v>5</v>
       </c>
-      <c r="E197" t="s">
+      <c r="D197" t="s">
         <v>27</v>
       </c>
-      <c r="F197">
+      <c r="E197">
         <v>496</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="D198" s="2">
+      <c r="C198" s="2">
         <v>6</v>
       </c>
-      <c r="E198" t="s">
+      <c r="D198" t="s">
         <v>18</v>
       </c>
-      <c r="F198">
+      <c r="E198">
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="D199" s="2">
+      <c r="C199" s="2">
         <v>7</v>
       </c>
-      <c r="E199" t="s">
+      <c r="D199" t="s">
         <v>11</v>
       </c>
-      <c r="F199">
+      <c r="E199">
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="D200" s="2">
+      <c r="C200" s="2">
         <v>8</v>
       </c>
-      <c r="E200" t="s">
+      <c r="D200" t="s">
         <v>24</v>
       </c>
-      <c r="F200">
+      <c r="E200">
         <v>517</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="D201" s="2">
+      <c r="C201" s="2">
         <v>9</v>
       </c>
-      <c r="E201" t="s">
+      <c r="D201" t="s">
         <v>13</v>
       </c>
-      <c r="F201">
+      <c r="E201">
         <v>419</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="D202" s="2">
+      <c r="C202" s="2">
         <v>10</v>
       </c>
-      <c r="E202" t="s">
+      <c r="D202" t="s">
         <v>14</v>
       </c>
-      <c r="F202">
+      <c r="E202">
         <v>416</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="D203" s="2">
+      <c r="C203" s="2">
         <v>11</v>
       </c>
-      <c r="E203" t="s">
+      <c r="D203" t="s">
         <v>26</v>
       </c>
-      <c r="F203">
+      <c r="E203">
         <v>410</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="D204" s="2">
+      <c r="C204" s="2">
         <v>12</v>
       </c>
-      <c r="E204" t="s">
+      <c r="D204" t="s">
         <v>25</v>
       </c>
-      <c r="F204">
+      <c r="E204">
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="D205" s="2">
+      <c r="C205" s="2">
         <v>13</v>
       </c>
-      <c r="E205" t="s">
+      <c r="D205" t="s">
         <v>19</v>
       </c>
-      <c r="F205">
+      <c r="E205">
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="D206" s="2">
+      <c r="C206" s="2">
         <v>14</v>
       </c>
-      <c r="E206" t="s">
+      <c r="D206" t="s">
         <v>28</v>
       </c>
-      <c r="F206">
+      <c r="E206">
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="D207" s="2">
+      <c r="C207" s="2">
         <v>15</v>
       </c>
-      <c r="E207" t="s">
+      <c r="D207" t="s">
         <v>21</v>
       </c>
-      <c r="F207">
+      <c r="E207">
         <v>538</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="D208" s="2">
+      <c r="C208" s="2">
         <v>16</v>
       </c>
-      <c r="E208" t="s">
+      <c r="D208" t="s">
         <v>18</v>
       </c>
-      <c r="F208">
+      <c r="E208">
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="D209" s="2">
+      <c r="C209" s="2">
         <v>17</v>
       </c>
-      <c r="E209" t="s">
+      <c r="D209" t="s">
         <v>16</v>
       </c>
-      <c r="F209">
+      <c r="E209">
         <v>453</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="D210" s="2">
+      <c r="C210" s="2">
         <v>18</v>
       </c>
-      <c r="E210" t="s">
+      <c r="D210" t="s">
         <v>15</v>
       </c>
-      <c r="F210">
+      <c r="E210">
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="D211" s="2">
+      <c r="C211" s="2">
         <v>19</v>
       </c>
-      <c r="E211" t="s">
+      <c r="D211" t="s">
         <v>12</v>
       </c>
-      <c r="F211">
+      <c r="E211">
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="D212" s="2">
+      <c r="C212" s="2">
         <v>20</v>
       </c>
-      <c r="E212" t="s">
+      <c r="D212" t="s">
         <v>26</v>
       </c>
-      <c r="F212">
+      <c r="E212">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="D213" s="2">
+      <c r="C213" s="2">
         <v>21</v>
       </c>
-      <c r="E213" t="s">
+      <c r="D213" t="s">
         <v>14</v>
       </c>
-      <c r="F213">
+      <c r="E213">
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="D214" s="2">
+      <c r="C214" s="2">
         <v>22</v>
       </c>
-      <c r="E214" t="s">
+      <c r="D214" t="s">
         <v>27</v>
       </c>
-      <c r="F214">
+      <c r="E214">
         <v>496</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="D215" s="2">
+      <c r="C215" s="2">
         <v>23</v>
       </c>
-      <c r="E215" t="s">
+      <c r="D215" t="s">
         <v>23</v>
       </c>
-      <c r="F215">
+      <c r="E215">
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="D216" s="2">
+      <c r="C216" s="2">
         <v>24</v>
       </c>
-      <c r="E216" t="s">
+      <c r="D216" t="s">
         <v>11</v>
       </c>
-      <c r="F216">
+      <c r="E216">
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="D217" s="2">
+      <c r="C217" s="2">
         <v>25</v>
       </c>
-      <c r="E217" t="s">
+      <c r="D217" t="s">
         <v>13</v>
       </c>
-      <c r="F217">
+      <c r="E217">
         <v>419</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="D218" s="2">
+      <c r="C218" s="2">
         <v>26</v>
       </c>
-      <c r="E218" t="s">
+      <c r="D218" t="s">
         <v>24</v>
       </c>
-      <c r="F218">
+      <c r="E218">
         <v>517</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="D219" s="2">
+      <c r="C219" s="2">
         <v>27</v>
       </c>
-      <c r="E219" t="s">
+      <c r="D219" t="s">
         <v>19</v>
       </c>
-      <c r="F219">
+      <c r="E219">
         <v>538</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="D220" s="2">
+      <c r="C220" s="2">
         <v>28</v>
       </c>
-      <c r="E220" t="s">
+      <c r="D220" t="s">
         <v>20</v>
       </c>
-      <c r="F220">
+      <c r="E220">
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="D221" s="2">
+      <c r="C221" s="2">
         <v>29</v>
       </c>
-      <c r="E221" t="s">
+      <c r="D221" t="s">
         <v>28</v>
       </c>
-      <c r="F221">
+      <c r="E221">
         <v>430</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="D222" s="2">
+      <c r="C222" s="2">
         <v>30</v>
       </c>
-      <c r="E222" t="s">
+      <c r="D222" t="s">
         <v>18</v>
       </c>
-      <c r="F222">
+      <c r="E222">
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="D223" s="2">
+      <c r="C223" s="2">
         <v>31</v>
       </c>
-      <c r="E223" t="s">
+      <c r="D223" t="s">
         <v>21</v>
       </c>
-      <c r="F223">
+      <c r="E223">
         <v>538</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="D224" s="2">
+      <c r="C224" s="2">
         <v>32</v>
       </c>
-      <c r="E224" t="s">
+      <c r="D224" t="s">
         <v>15</v>
       </c>
-      <c r="F224">
+      <c r="E224">
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="D225" s="2">
+      <c r="C225" s="2">
         <v>33</v>
       </c>
-      <c r="E225" t="s">
+      <c r="D225" t="s">
         <v>17</v>
       </c>
-      <c r="F225">
+      <c r="E225">
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="D226" s="2">
+      <c r="C226" s="2">
         <v>34</v>
       </c>
-      <c r="E226" t="s">
+      <c r="D226" t="s">
         <v>12</v>
       </c>
-      <c r="F226">
+      <c r="E226">
         <v>470</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="D227" s="2">
+      <c r="C227" s="2">
         <v>35</v>
       </c>
-      <c r="E227" t="s">
+      <c r="D227" t="s">
         <v>14</v>
       </c>
-      <c r="F227">
+      <c r="E227">
         <v>416</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="D228" s="2">
+      <c r="C228" s="2">
         <v>36</v>
       </c>
-      <c r="E228" t="s">
+      <c r="D228" t="s">
         <v>26</v>
       </c>
-      <c r="F228">
+      <c r="E228">
         <v>410</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="D229" s="2">
+      <c r="C229" s="2">
         <v>37</v>
       </c>
-      <c r="E229" t="s">
+      <c r="D229" t="s">
         <v>27</v>
       </c>
-      <c r="F229">
+      <c r="E229">
         <v>496</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="D230" s="2">
+      <c r="C230" s="2">
         <v>38</v>
       </c>
-      <c r="E230" t="s">
+      <c r="D230" t="s">
         <v>23</v>
       </c>
-      <c r="F230">
+      <c r="E230">
         <v>405</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="D231" s="2">
+      <c r="C231" s="2">
         <v>39</v>
       </c>
-      <c r="E231" t="s">
+      <c r="D231" t="s">
         <v>11</v>
       </c>
-      <c r="F231">
+      <c r="E231">
         <v>486</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="D232" s="2">
+      <c r="C232" s="2">
         <v>40</v>
       </c>
-      <c r="E232" t="s">
+      <c r="D232" t="s">
         <v>13</v>
       </c>
-      <c r="F232">
+      <c r="E232">
         <v>419</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="D233" s="2">
+      <c r="C233" s="2">
         <v>41</v>
       </c>
-      <c r="E233" t="s">
+      <c r="D233" t="s">
         <v>28</v>
       </c>
-      <c r="F233">
+      <c r="E233">
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="D234" s="2">
+      <c r="C234" s="2">
         <v>42</v>
       </c>
-      <c r="E234" t="s">
+      <c r="D234" t="s">
         <v>18</v>
       </c>
-      <c r="F234">
+      <c r="E234">
         <v>470</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="D235" s="2">
+      <c r="C235" s="2">
         <v>43</v>
       </c>
-      <c r="E235" t="s">
+      <c r="D235" t="s">
         <v>20</v>
       </c>
-      <c r="F235">
+      <c r="E235">
         <v>419</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="D236" s="2">
+      <c r="C236" s="2">
         <v>44</v>
       </c>
-      <c r="E236" t="s">
+      <c r="D236" t="s">
         <v>25</v>
       </c>
-      <c r="F236">
+      <c r="E236">
         <v>517</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="D237" s="2">
+      <c r="C237" s="2">
         <v>45</v>
       </c>
-      <c r="E237" t="s">
+      <c r="D237" t="s">
         <v>21</v>
       </c>
-      <c r="F237">
+      <c r="E237">
         <v>538</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="D238" s="2">
+      <c r="C238" s="2">
         <v>46</v>
       </c>
-      <c r="E238" t="s">
+      <c r="D238" t="s">
         <v>19</v>
       </c>
-      <c r="F238">
+      <c r="E238">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="1">
         <v>43476</v>
       </c>
-      <c r="D239" s="2">
+      <c r="C239" s="2">
         <v>1</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F239">
+      <c r="E239">
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="D240" s="2">
+      <c r="C240" s="2">
         <v>2</v>
       </c>
-      <c r="E240" t="s">
+      <c r="D240" t="s">
         <v>12</v>
       </c>
-      <c r="F240">
+      <c r="E240">
         <v>470</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="D241" s="2">
+      <c r="C241" s="2">
         <v>3</v>
       </c>
-      <c r="E241" t="s">
+      <c r="D241" t="s">
         <v>15</v>
       </c>
-      <c r="F241">
+      <c r="E241">
         <v>420</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="D242" s="2">
+      <c r="C242" s="2">
         <v>4</v>
       </c>
-      <c r="E242" t="s">
+      <c r="D242" t="s">
         <v>19</v>
       </c>
-      <c r="F242">
+      <c r="E242">
         <v>538</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="D243" s="2">
+      <c r="C243" s="2">
         <v>5</v>
       </c>
-      <c r="E243" t="s">
+      <c r="D243" t="s">
         <v>25</v>
       </c>
-      <c r="F243">
+      <c r="E243">
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="D244" s="2">
+      <c r="C244" s="2">
         <v>6</v>
       </c>
-      <c r="E244" t="s">
+      <c r="D244" t="s">
         <v>16</v>
       </c>
-      <c r="F244">
+      <c r="E244">
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="D245" s="2">
+      <c r="C245" s="2">
         <v>7</v>
       </c>
-      <c r="E245" t="s">
+      <c r="D245" t="s">
         <v>18</v>
       </c>
-      <c r="F245">
+      <c r="E245">
         <v>470</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="D246" s="2">
+      <c r="C246" s="2">
         <v>8</v>
       </c>
-      <c r="E246" t="s">
+      <c r="D246" t="s">
         <v>27</v>
       </c>
-      <c r="F246">
+      <c r="E246">
         <v>496</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="D247" s="2">
+      <c r="C247" s="2">
         <v>9</v>
       </c>
-      <c r="E247" t="s">
+      <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="F247">
+      <c r="E247">
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="D248" s="2">
+      <c r="C248" s="2">
         <v>10</v>
       </c>
-      <c r="E248" t="s">
+      <c r="D248" t="s">
         <v>21</v>
       </c>
-      <c r="F248">
+      <c r="E248">
         <v>538</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="D249" s="2">
+      <c r="C249" s="2">
         <v>11</v>
       </c>
-      <c r="E249" t="s">
+      <c r="D249" t="s">
         <v>13</v>
       </c>
-      <c r="F249">
+      <c r="E249">
         <v>419</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="D250" s="2">
+      <c r="C250" s="2">
         <v>12</v>
       </c>
-      <c r="E250" t="s">
+      <c r="D250" t="s">
         <v>28</v>
       </c>
-      <c r="F250">
+      <c r="E250">
         <v>430</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="D251" s="2">
+      <c r="C251" s="2">
         <v>13</v>
       </c>
-      <c r="E251" t="s">
+      <c r="D251" t="s">
         <v>20</v>
       </c>
-      <c r="F251">
+      <c r="E251">
         <v>419</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="D252" s="2">
+      <c r="C252" s="2">
         <v>14</v>
       </c>
-      <c r="E252" t="s">
+      <c r="D252" t="s">
         <v>23</v>
       </c>
-      <c r="F252">
+      <c r="E252">
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="D253" s="2">
+      <c r="C253" s="2">
         <v>15</v>
       </c>
-      <c r="E253" t="s">
+      <c r="D253" t="s">
         <v>12</v>
       </c>
-      <c r="F253">
+      <c r="E253">
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="D254" s="2">
+      <c r="C254" s="2">
         <v>16</v>
       </c>
-      <c r="E254" t="s">
+      <c r="D254" t="s">
         <v>15</v>
       </c>
-      <c r="F254">
+      <c r="E254">
         <v>420</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="D255" s="2">
+      <c r="C255" s="2">
         <v>17</v>
       </c>
-      <c r="E255" t="s">
+      <c r="D255" t="s">
         <v>18</v>
       </c>
-      <c r="F255">
+      <c r="E255">
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="D256" s="2">
+      <c r="C256" s="2">
         <v>18</v>
       </c>
-      <c r="E256" t="s">
+      <c r="D256" t="s">
         <v>19</v>
       </c>
-      <c r="F256">
+      <c r="E256">
         <v>538</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="D257" s="2">
+      <c r="C257" s="2">
         <v>19</v>
       </c>
-      <c r="E257" t="s">
+      <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="F257">
+      <c r="E257">
         <v>416</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="D258" s="2">
+      <c r="C258" s="2">
         <v>20</v>
       </c>
-      <c r="E258" t="s">
+      <c r="D258" t="s">
         <v>26</v>
       </c>
-      <c r="F258">
+      <c r="E258">
         <v>410</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="D259" s="2">
+      <c r="C259" s="2">
         <v>21</v>
       </c>
-      <c r="E259" t="s">
+      <c r="D259" t="s">
         <v>16</v>
       </c>
-      <c r="F259">
+      <c r="E259">
         <v>453</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="D260" s="2">
+      <c r="C260" s="2">
         <v>22</v>
       </c>
-      <c r="E260" t="s">
+      <c r="D260" t="s">
         <v>27</v>
       </c>
-      <c r="F260">
+      <c r="E260">
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="D261" s="2">
+      <c r="C261" s="2">
         <v>23</v>
       </c>
-      <c r="E261" t="s">
+      <c r="D261" t="s">
         <v>21</v>
       </c>
-      <c r="F261">
+      <c r="E261">
         <v>538</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="D262" s="2">
+      <c r="C262" s="2">
         <v>24</v>
       </c>
-      <c r="E262" t="s">
+      <c r="D262" t="s">
         <v>28</v>
       </c>
-      <c r="F262">
+      <c r="E262">
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="D263" s="2">
+      <c r="C263" s="2">
         <v>25</v>
       </c>
-      <c r="E263" t="s">
+      <c r="D263" t="s">
         <v>20</v>
       </c>
-      <c r="F263">
+      <c r="E263">
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="D264" s="2">
+      <c r="C264" s="2">
         <v>26</v>
       </c>
-      <c r="E264" t="s">
+      <c r="D264" t="s">
         <v>12</v>
       </c>
-      <c r="F264">
+      <c r="E264">
         <v>470</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="D265" s="2">
+      <c r="C265" s="2">
         <v>27</v>
       </c>
-      <c r="E265" t="s">
+      <c r="D265" t="s">
         <v>15</v>
       </c>
-      <c r="F265">
+      <c r="E265">
         <v>420</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="D266" s="2">
+      <c r="C266" s="2">
         <v>28</v>
       </c>
-      <c r="E266" t="s">
+      <c r="D266" t="s">
         <v>18</v>
       </c>
-      <c r="F266">
+      <c r="E266">
         <v>470</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="D267" s="2">
+      <c r="C267" s="2">
         <v>29</v>
       </c>
-      <c r="E267" t="s">
+      <c r="D267" t="s">
         <v>23</v>
       </c>
-      <c r="F267">
+      <c r="E267">
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="D268" s="2">
+      <c r="C268" s="2">
         <v>30</v>
       </c>
-      <c r="E268" t="s">
+      <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="F268">
+      <c r="E268">
         <v>416</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="D269" s="2">
+      <c r="C269" s="2">
         <v>31</v>
       </c>
-      <c r="E269" t="s">
+      <c r="D269" t="s">
         <v>26</v>
       </c>
-      <c r="F269">
+      <c r="E269">
         <v>410</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="D270" s="2">
+      <c r="C270" s="2">
         <v>32</v>
       </c>
-      <c r="E270" t="s">
+      <c r="D270" t="s">
         <v>28</v>
       </c>
-      <c r="F270">
+      <c r="E270">
         <v>430</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="D271" s="2">
+      <c r="C271" s="2">
         <v>33</v>
       </c>
-      <c r="E271" t="s">
+      <c r="D271" t="s">
         <v>25</v>
       </c>
-      <c r="F271">
+      <c r="E271">
         <v>420</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="D272" s="2">
+      <c r="C272" s="2">
         <v>34</v>
       </c>
-      <c r="E272" t="s">
+      <c r="D272" t="s">
         <v>21</v>
       </c>
-      <c r="F272">
+      <c r="E272">
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="D273" s="2">
+      <c r="C273" s="2">
         <v>35</v>
       </c>
-      <c r="E273" t="s">
+      <c r="D273" t="s">
         <v>25</v>
       </c>
-      <c r="F273">
+      <c r="E273">
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="D274" s="2">
+      <c r="C274" s="2">
         <v>36</v>
       </c>
-      <c r="E274" t="s">
+      <c r="D274" t="s">
         <v>25</v>
       </c>
-      <c r="F274">
+      <c r="E274">
         <v>453</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="D275" s="2">
+      <c r="C275" s="2">
         <v>37</v>
       </c>
-      <c r="E275" t="s">
+      <c r="D275" t="s">
         <v>25</v>
       </c>
-      <c r="F275">
+      <c r="E275">
         <v>470</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="D276" s="2">
+      <c r="C276" s="2">
         <v>38</v>
       </c>
-      <c r="E276" t="s">
+      <c r="D276" t="s">
         <v>25</v>
       </c>
-      <c r="F276">
+      <c r="E276">
         <v>405</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" s="1">
         <v>43477</v>
       </c>
-      <c r="D277" s="2">
+      <c r="C277" s="2">
         <v>1</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F277">
+      <c r="E277">
         <v>405</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="D278" s="2">
+      <c r="C278" s="2">
         <v>2</v>
       </c>
-      <c r="E278" t="s">
+      <c r="D278" t="s">
         <v>15</v>
       </c>
-      <c r="F278">
+      <c r="E278">
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="D279" s="2">
+      <c r="C279" s="2">
         <v>3</v>
       </c>
-      <c r="E279" t="s">
+      <c r="D279" t="s">
         <v>24</v>
       </c>
-      <c r="F279">
+      <c r="E279">
         <v>517</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="D280" s="2">
+      <c r="C280" s="2">
         <v>4</v>
       </c>
-      <c r="E280" t="s">
+      <c r="D280" t="s">
         <v>12</v>
       </c>
-      <c r="F280">
+      <c r="E280">
         <v>470</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="D281" s="2">
+      <c r="C281" s="2">
         <v>5</v>
       </c>
-      <c r="E281" t="s">
+      <c r="D281" t="s">
         <v>27</v>
       </c>
-      <c r="F281">
+      <c r="E281">
         <v>496</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="D282" s="2">
+      <c r="C282" s="2">
         <v>6</v>
       </c>
-      <c r="E282" t="s">
+      <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="F282">
+      <c r="E282">
         <v>416</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="D283" s="2">
+      <c r="C283" s="2">
         <v>7</v>
       </c>
-      <c r="E283" t="s">
+      <c r="D283" t="s">
         <v>21</v>
       </c>
-      <c r="F283">
+      <c r="E283">
         <v>538</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="D284" s="2">
+      <c r="C284" s="2">
         <v>8</v>
       </c>
-      <c r="E284" t="s">
+      <c r="D284" t="s">
         <v>13</v>
       </c>
-      <c r="F284">
+      <c r="E284">
         <v>419</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="D285" s="2">
+      <c r="C285" s="2">
         <v>9</v>
       </c>
-      <c r="E285" t="s">
+      <c r="D285" t="s">
         <v>20</v>
       </c>
-      <c r="F285">
+      <c r="E285">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="D286" s="2">
+      <c r="C286" s="2">
         <v>10</v>
       </c>
-      <c r="E286" t="s">
+      <c r="D286" t="s">
         <v>17</v>
       </c>
-      <c r="F286">
+      <c r="E286">
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="D287" s="2">
+      <c r="C287" s="2">
         <v>11</v>
       </c>
-      <c r="E287" t="s">
+      <c r="D287" t="s">
         <v>15</v>
       </c>
-      <c r="F287">
+      <c r="E287">
         <v>420</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="D288" s="2">
+      <c r="C288" s="2">
         <v>12</v>
       </c>
-      <c r="E288" t="s">
+      <c r="D288" t="s">
         <v>23</v>
       </c>
-      <c r="F288">
+      <c r="E288">
         <v>405</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="D289" s="2">
+      <c r="C289" s="2">
         <v>13</v>
       </c>
-      <c r="E289" t="s">
+      <c r="D289" t="s">
         <v>12</v>
       </c>
-      <c r="F289">
+      <c r="E289">
         <v>470</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="D290" s="2">
+      <c r="C290" s="2">
         <v>14</v>
       </c>
-      <c r="E290" t="s">
+      <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="F290">
+      <c r="E290">
         <v>416</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="D291" s="2">
+      <c r="C291" s="2">
         <v>15</v>
       </c>
-      <c r="E291" t="s">
+      <c r="D291" t="s">
         <v>25</v>
       </c>
-      <c r="F291">
+      <c r="E291">
         <v>419</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="D292" s="2">
+      <c r="C292" s="2">
         <v>16</v>
       </c>
-      <c r="E292" t="s">
+      <c r="D292" t="s">
         <v>24</v>
       </c>
-      <c r="F292">
+      <c r="E292">
         <v>517</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="D293" s="2">
+      <c r="C293" s="2">
         <v>17</v>
       </c>
-      <c r="E293" t="s">
+      <c r="D293" t="s">
         <v>27</v>
       </c>
-      <c r="F293">
+      <c r="E293">
         <v>496</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="D294" s="2">
+      <c r="C294" s="2">
         <v>18</v>
       </c>
-      <c r="E294" t="s">
+      <c r="D294" t="s">
         <v>26</v>
       </c>
-      <c r="F294">
+      <c r="E294">
         <v>410</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="D295" s="2">
+      <c r="C295" s="2">
         <v>19</v>
       </c>
-      <c r="E295" t="s">
+      <c r="D295" t="s">
         <v>18</v>
       </c>
-      <c r="F295">
+      <c r="E295">
         <v>470</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="D296" s="2">
+      <c r="C296" s="2">
         <v>20</v>
       </c>
-      <c r="E296" t="s">
+      <c r="D296" t="s">
         <v>21</v>
       </c>
-      <c r="F296">
+      <c r="E296">
         <v>538</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="D297" s="2">
+      <c r="C297" s="2">
         <v>21</v>
       </c>
-      <c r="E297" t="s">
+      <c r="D297" t="s">
         <v>20</v>
       </c>
-      <c r="F297">
+      <c r="E297">
         <v>419</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="D298" s="2">
+      <c r="C298" s="2">
         <v>22</v>
       </c>
-      <c r="E298" t="s">
+      <c r="D298" t="s">
         <v>17</v>
       </c>
-      <c r="F298">
+      <c r="E298">
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="D299" s="2">
+      <c r="C299" s="2">
         <v>23</v>
       </c>
-      <c r="E299" t="s">
+      <c r="D299" t="s">
         <v>13</v>
       </c>
-      <c r="F299">
+      <c r="E299">
         <v>419</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="D300" s="2">
+      <c r="C300" s="2">
         <v>24</v>
       </c>
-      <c r="E300" t="s">
+      <c r="D300" t="s">
         <v>25</v>
       </c>
-      <c r="F300">
+      <c r="E300">
         <v>420</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="D301" s="2">
+      <c r="C301" s="2">
         <v>25</v>
       </c>
-      <c r="E301" t="s">
+      <c r="D301" t="s">
         <v>23</v>
       </c>
-      <c r="F301">
+      <c r="E301">
         <v>405</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="D302" s="2">
+      <c r="C302" s="2">
         <v>26</v>
       </c>
-      <c r="E302" t="s">
+      <c r="D302" t="s">
         <v>12</v>
       </c>
-      <c r="F302">
+      <c r="E302">
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="D303" s="2">
+      <c r="C303" s="2">
         <v>27</v>
       </c>
-      <c r="E303" t="s">
+      <c r="D303" t="s">
         <v>11</v>
       </c>
-      <c r="F303">
+      <c r="E303">
         <v>486</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="D304" s="2">
+      <c r="C304" s="2">
         <v>28</v>
       </c>
-      <c r="E304" t="s">
+      <c r="D304" t="s">
         <v>14</v>
       </c>
-      <c r="F304">
+      <c r="E304">
         <v>416</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="D305" s="2">
+      <c r="C305" s="2">
         <v>29</v>
       </c>
-      <c r="E305" t="s">
+      <c r="D305" t="s">
         <v>25</v>
       </c>
-      <c r="F305">
+      <c r="E305">
         <v>538</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="D306" s="2">
+      <c r="C306" s="2">
         <v>30</v>
       </c>
-      <c r="E306" t="s">
+      <c r="D306" t="s">
         <v>25</v>
       </c>
-      <c r="F306">
+      <c r="E306">
         <v>486</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="D307" s="2">
+      <c r="C307" s="2">
         <v>31</v>
       </c>
-      <c r="E307" t="s">
+      <c r="D307" t="s">
         <v>18</v>
       </c>
-      <c r="F307">
+      <c r="E307">
         <v>470</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="D308" s="2">
+      <c r="C308" s="2">
         <v>32</v>
       </c>
-      <c r="E308" t="s">
+      <c r="D308" t="s">
         <v>25</v>
       </c>
-      <c r="F308">
+      <c r="E308">
         <v>419</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="D309" s="2">
+      <c r="C309" s="2">
         <v>33</v>
       </c>
-      <c r="E309" t="s">
+      <c r="D309" t="s">
         <v>26</v>
       </c>
-      <c r="F309">
+      <c r="E309">
         <v>410</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" s="1">
         <v>43478</v>
       </c>
-      <c r="D310" s="2">
+      <c r="C310" s="2">
         <v>1</v>
       </c>
-      <c r="E310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F310">
+      <c r="E310">
         <v>405</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="D311" s="2">
+      <c r="C311" s="2">
         <v>2</v>
       </c>
-      <c r="E311" t="s">
+      <c r="D311" t="s">
         <v>18</v>
       </c>
-      <c r="F311">
+      <c r="E311">
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="D312" s="2">
+      <c r="C312" s="2">
         <v>3</v>
       </c>
-      <c r="E312" t="s">
+      <c r="D312" t="s">
         <v>27</v>
       </c>
-      <c r="F312">
+      <c r="E312">
         <v>496</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="D313" s="2">
+      <c r="C313" s="2">
         <v>4</v>
       </c>
-      <c r="E313" t="s">
+      <c r="D313" t="s">
         <v>14</v>
       </c>
-      <c r="F313">
+      <c r="E313">
         <v>416</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="D314" s="2">
+      <c r="C314" s="2">
         <v>5</v>
       </c>
-      <c r="E314" t="s">
+      <c r="D314" t="s">
         <v>12</v>
       </c>
-      <c r="F314">
+      <c r="E314">
         <v>470</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="D315" s="2">
+      <c r="C315" s="2">
         <v>6</v>
       </c>
-      <c r="E315" t="s">
+      <c r="D315" t="s">
         <v>24</v>
       </c>
-      <c r="F315">
+      <c r="E315">
         <v>517</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="D316" s="2">
+      <c r="C316" s="2">
         <v>7</v>
       </c>
-      <c r="E316" t="s">
+      <c r="D316" t="s">
         <v>15</v>
       </c>
-      <c r="F316">
+      <c r="E316">
         <v>420</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="D317" s="2">
+      <c r="C317" s="2">
         <v>8</v>
       </c>
-      <c r="E317" t="s">
+      <c r="D317" t="s">
         <v>11</v>
       </c>
-      <c r="F317">
+      <c r="E317">
         <v>486</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="D318" s="2">
+      <c r="C318" s="2">
         <v>9</v>
       </c>
-      <c r="E318" t="s">
+      <c r="D318" t="s">
         <v>26</v>
       </c>
-      <c r="F318">
+      <c r="E318">
         <v>410</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="D319" s="2">
+      <c r="C319" s="2">
         <v>10</v>
       </c>
-      <c r="E319" t="s">
+      <c r="D319" t="s">
         <v>19</v>
       </c>
-      <c r="F319">
+      <c r="E319">
         <v>538</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="D320" s="2">
+      <c r="C320" s="2">
         <v>11</v>
       </c>
-      <c r="E320" t="s">
+      <c r="D320" t="s">
         <v>28</v>
       </c>
-      <c r="F320">
+      <c r="E320">
         <v>430</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="D321" s="2">
+      <c r="C321" s="2">
         <v>12</v>
       </c>
-      <c r="E321" t="s">
+      <c r="D321" t="s">
         <v>21</v>
       </c>
-      <c r="F321">
+      <c r="E321">
         <v>538</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="D322" s="2">
+      <c r="C322" s="2">
         <v>13</v>
       </c>
-      <c r="E322" t="s">
+      <c r="D322" t="s">
         <v>13</v>
       </c>
-      <c r="F322">
+      <c r="E322">
         <v>419</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="D323" s="2">
+      <c r="C323" s="2">
         <v>14</v>
       </c>
-      <c r="E323" t="s">
+      <c r="D323" t="s">
         <v>18</v>
       </c>
-      <c r="F323">
+      <c r="E323">
         <v>470</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="D324" s="2">
+      <c r="C324" s="2">
         <v>15</v>
       </c>
-      <c r="E324" t="s">
+      <c r="D324" t="s">
         <v>20</v>
       </c>
-      <c r="F324">
+      <c r="E324">
         <v>419</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="D325" s="2">
+      <c r="C325" s="2">
         <v>16</v>
       </c>
-      <c r="E325" t="s">
+      <c r="D325" t="s">
         <v>12</v>
       </c>
-      <c r="F325">
+      <c r="E325">
         <v>470</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="D326" s="2">
+      <c r="C326" s="2">
         <v>17</v>
       </c>
-      <c r="E326" t="s">
+      <c r="D326" t="s">
         <v>14</v>
       </c>
-      <c r="F326">
+      <c r="E326">
         <v>416</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="D327" s="2">
+      <c r="C327" s="2">
         <v>18</v>
       </c>
-      <c r="E327" t="s">
+      <c r="D327" t="s">
         <v>23</v>
       </c>
-      <c r="F327">
+      <c r="E327">
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="D328" s="2">
+      <c r="C328" s="2">
         <v>19</v>
       </c>
-      <c r="E328" t="s">
+      <c r="D328" t="s">
         <v>11</v>
       </c>
-      <c r="F328">
+      <c r="E328">
         <v>486</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="D329" s="2">
+      <c r="C329" s="2">
         <v>20</v>
       </c>
-      <c r="E329" t="s">
+      <c r="D329" t="s">
         <v>15</v>
       </c>
-      <c r="F329">
+      <c r="E329">
         <v>420</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="D330" s="2">
+      <c r="C330" s="2">
         <v>21</v>
       </c>
-      <c r="E330" t="s">
+      <c r="D330" t="s">
         <v>28</v>
       </c>
-      <c r="F330">
+      <c r="E330">
         <v>430</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="D331" s="2">
+      <c r="C331" s="2">
         <v>22</v>
       </c>
-      <c r="E331" t="s">
+      <c r="D331" t="s">
         <v>24</v>
       </c>
-      <c r="F331">
+      <c r="E331">
         <v>517</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="D332" s="2">
+      <c r="C332" s="2">
         <v>23</v>
       </c>
-      <c r="E332" t="s">
+      <c r="D332" t="s">
         <v>17</v>
       </c>
-      <c r="F332">
+      <c r="E332">
         <v>500</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="D333" s="2">
+      <c r="C333" s="2">
         <v>24</v>
       </c>
-      <c r="E333" t="s">
+      <c r="D333" t="s">
         <v>27</v>
       </c>
-      <c r="F333">
+      <c r="E333">
         <v>496</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="D334" s="2">
+      <c r="C334" s="2">
         <v>25</v>
       </c>
-      <c r="E334" t="s">
+      <c r="D334" t="s">
         <v>26</v>
       </c>
-      <c r="F334">
+      <c r="E334">
         <v>410</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="D335" s="2">
+      <c r="C335" s="2">
         <v>26</v>
       </c>
-      <c r="E335" t="s">
+      <c r="D335" t="s">
         <v>19</v>
       </c>
-      <c r="F335">
+      <c r="E335">
         <v>538</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="D336" s="2">
+      <c r="C336" s="2">
         <v>27</v>
       </c>
-      <c r="E336" t="s">
+      <c r="D336" t="s">
         <v>18</v>
       </c>
-      <c r="F336">
+      <c r="E336">
         <v>470</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="D337" s="2">
+      <c r="C337" s="2">
         <v>28</v>
       </c>
-      <c r="E337" t="s">
+      <c r="D337" t="s">
         <v>20</v>
       </c>
-      <c r="F337">
+      <c r="E337">
         <v>419</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="D338" s="2">
+      <c r="C338" s="2">
         <v>29</v>
       </c>
-      <c r="E338" t="s">
+      <c r="D338" t="s">
         <v>21</v>
       </c>
-      <c r="F338">
+      <c r="E338">
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="D339" s="2">
+      <c r="C339" s="2">
         <v>30</v>
       </c>
-      <c r="E339" t="s">
+      <c r="D339" t="s">
         <v>12</v>
       </c>
-      <c r="F339">
+      <c r="E339">
         <v>470</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="D340" s="2">
+      <c r="C340" s="2">
         <v>31</v>
       </c>
-      <c r="E340" t="s">
+      <c r="D340" t="s">
         <v>13</v>
       </c>
-      <c r="F340">
+      <c r="E340">
         <v>419</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="D341" s="2">
+      <c r="C341" s="2">
         <v>32</v>
       </c>
-      <c r="E341" t="s">
+      <c r="D341" t="s">
         <v>23</v>
       </c>
-      <c r="F341">
+      <c r="E341">
         <v>405</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="D342" s="2">
+      <c r="C342" s="2">
         <v>33</v>
       </c>
-      <c r="E342" t="s">
+      <c r="D342" t="s">
         <v>14</v>
       </c>
-      <c r="F342">
+      <c r="E342">
         <v>416</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="D343" s="2">
+      <c r="C343" s="2">
         <v>34</v>
       </c>
-      <c r="E343" t="s">
+      <c r="D343" t="s">
         <v>15</v>
       </c>
-      <c r="F343">
+      <c r="E343">
         <v>420</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="D344" s="2">
+      <c r="C344" s="2">
         <v>35</v>
       </c>
-      <c r="E344" t="s">
+      <c r="D344" t="s">
         <v>11</v>
       </c>
-      <c r="F344">
+      <c r="E344">
         <v>486</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="D345" s="2">
+      <c r="C345" s="2">
         <v>36</v>
       </c>
-      <c r="E345" t="s">
+      <c r="D345" t="s">
         <v>24</v>
       </c>
-      <c r="F345">
+      <c r="E345">
         <v>517</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="D346" s="2">
+      <c r="C346" s="2">
         <v>37</v>
       </c>
-      <c r="E346" t="s">
+      <c r="D346" t="s">
         <v>17</v>
       </c>
-      <c r="F346">
+      <c r="E346">
         <v>500</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="D347" s="2">
+      <c r="C347" s="2">
         <v>38</v>
       </c>
-      <c r="E347" t="s">
+      <c r="D347" t="s">
         <v>26</v>
       </c>
-      <c r="F347">
+      <c r="E347">
         <v>410</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="D348" s="2">
+      <c r="C348" s="2">
         <v>39</v>
       </c>
-      <c r="E348" t="s">
+      <c r="D348" t="s">
         <v>20</v>
       </c>
-      <c r="F348">
+      <c r="E348">
         <v>419</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="D349" s="2">
+      <c r="C349" s="2">
         <v>40</v>
       </c>
-      <c r="E349" t="s">
+      <c r="D349" t="s">
         <v>27</v>
       </c>
-      <c r="F349">
+      <c r="E349">
         <v>496</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="D350" s="2">
+      <c r="C350" s="2">
         <v>41</v>
       </c>
-      <c r="E350" t="s">
+      <c r="D350" t="s">
         <v>18</v>
       </c>
-      <c r="F350">
+      <c r="E350">
         <v>470</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="D351" s="2">
+      <c r="C351" s="2">
         <v>42</v>
       </c>
-      <c r="E351" t="s">
+      <c r="D351" t="s">
         <v>19</v>
       </c>
-      <c r="F351">
+      <c r="E351">
         <v>538</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="D352" s="2">
+      <c r="C352" s="2">
         <v>43</v>
       </c>
-      <c r="E352" t="s">
+      <c r="D352" t="s">
         <v>28</v>
       </c>
-      <c r="F352">
+      <c r="E352">
         <v>470</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="D353" s="2">
+      <c r="C353" s="2">
         <v>44</v>
       </c>
-      <c r="E353" t="s">
+      <c r="D353" t="s">
         <v>25</v>
       </c>
-      <c r="F353">
+      <c r="E353">
         <v>538</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="D354" s="2">
+      <c r="C354" s="2">
         <v>45</v>
       </c>
-      <c r="E354" t="s">
+      <c r="D354" t="s">
         <v>25</v>
       </c>
-      <c r="F354">
+      <c r="E354">
         <v>470</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" s="1">
         <v>43479</v>
       </c>
-      <c r="D355" s="2">
+      <c r="C355" s="2">
         <v>1</v>
       </c>
-      <c r="E355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F355">
+      <c r="E355">
         <v>405</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="D356" s="2">
+      <c r="C356" s="2">
         <v>2</v>
       </c>
-      <c r="E356" t="s">
+      <c r="D356" t="s">
         <v>12</v>
       </c>
-      <c r="F356">
+      <c r="E356">
         <v>470</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="D357" s="2">
+      <c r="C357" s="2">
         <v>3</v>
       </c>
-      <c r="E357" t="s">
+      <c r="D357" t="s">
         <v>15</v>
       </c>
-      <c r="F357">
+      <c r="E357">
         <v>420</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="D358" s="2">
+      <c r="C358" s="2">
         <v>4</v>
       </c>
-      <c r="E358" t="s">
+      <c r="D358" t="s">
         <v>11</v>
       </c>
-      <c r="F358">
+      <c r="E358">
         <v>486</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="D359" s="2">
+      <c r="C359" s="2">
         <v>5</v>
       </c>
-      <c r="E359" t="s">
+      <c r="D359" t="s">
         <v>27</v>
       </c>
-      <c r="F359">
+      <c r="E359">
         <v>496</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="D360" s="2">
+      <c r="C360" s="2">
         <v>6</v>
       </c>
-      <c r="E360" t="s">
+      <c r="D360" t="s">
         <v>13</v>
       </c>
-      <c r="F360">
+      <c r="E360">
         <v>419</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="D361" s="2">
+      <c r="C361" s="2">
         <v>7</v>
       </c>
-      <c r="E361" t="s">
+      <c r="D361" t="s">
         <v>26</v>
       </c>
-      <c r="F361">
+      <c r="E361">
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="D362" s="2">
+      <c r="C362" s="2">
         <v>8</v>
       </c>
-      <c r="E362" t="s">
+      <c r="D362" t="s">
         <v>19</v>
       </c>
-      <c r="F362">
+      <c r="E362">
         <v>538</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="D363" s="2">
+      <c r="C363" s="2">
         <v>9</v>
       </c>
-      <c r="E363" t="s">
+      <c r="D363" t="s">
         <v>28</v>
       </c>
-      <c r="F363">
+      <c r="E363">
         <v>430</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="D364" s="2">
+      <c r="C364" s="2">
         <v>10</v>
       </c>
-      <c r="E364" t="s">
+      <c r="D364" t="s">
         <v>12</v>
       </c>
-      <c r="F364">
+      <c r="E364">
         <v>470</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="D365" s="2">
+      <c r="C365" s="2">
         <v>11</v>
       </c>
-      <c r="E365" t="s">
+      <c r="D365" t="s">
         <v>11</v>
       </c>
-      <c r="F365">
+      <c r="E365">
         <v>486</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="D366" s="2">
+      <c r="C366" s="2">
         <v>12</v>
       </c>
-      <c r="E366" t="s">
+      <c r="D366" t="s">
         <v>23</v>
       </c>
-      <c r="F366">
+      <c r="E366">
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:5">
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="D367" s="2">
+      <c r="C367" s="2">
         <v>13</v>
       </c>
-      <c r="E367" t="s">
+      <c r="D367" t="s">
         <v>13</v>
       </c>
-      <c r="F367">
+      <c r="E367">
         <v>419</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="D368" s="2">
+      <c r="C368" s="2">
         <v>14</v>
       </c>
-      <c r="E368" t="s">
+      <c r="D368" t="s">
         <v>26</v>
       </c>
-      <c r="F368">
+      <c r="E368">
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="D369" s="2">
+      <c r="C369" s="2">
         <v>15</v>
       </c>
-      <c r="E369" t="s">
+      <c r="D369" t="s">
         <v>17</v>
       </c>
-      <c r="F369">
+      <c r="E369">
         <v>500</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:5">
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="D370" s="2">
+      <c r="C370" s="2">
         <v>16</v>
       </c>
-      <c r="E370" t="s">
+      <c r="D370" t="s">
         <v>15</v>
       </c>
-      <c r="F370">
+      <c r="E370">
         <v>420</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:5">
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="D371" s="2">
+      <c r="C371" s="2">
         <v>17</v>
       </c>
-      <c r="E371" t="s">
+      <c r="D371" t="s">
         <v>29</v>
       </c>
-      <c r="F371">
+      <c r="E371">
         <v>450</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:5">
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="D372" s="2">
+      <c r="C372" s="2">
         <v>18</v>
       </c>
-      <c r="E372" t="s">
+      <c r="D372" t="s">
         <v>19</v>
       </c>
-      <c r="F372">
+      <c r="E372">
         <v>538</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="D373" s="2">
+      <c r="C373" s="2">
         <v>19</v>
       </c>
-      <c r="E373" t="s">
+      <c r="D373" t="s">
         <v>20</v>
       </c>
-      <c r="F373">
+      <c r="E373">
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="D374" s="2">
+      <c r="C374" s="2">
         <v>20</v>
       </c>
-      <c r="E374" t="s">
+      <c r="D374" t="s">
         <v>25</v>
       </c>
-      <c r="F374">
+      <c r="E374">
         <v>517</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:5">
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="D375" s="2">
+      <c r="C375" s="2">
         <v>21</v>
       </c>
-      <c r="E375" t="s">
+      <c r="D375" t="s">
         <v>27</v>
       </c>
-      <c r="F375">
+      <c r="E375">
         <v>496</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="D376" s="2">
+      <c r="C376" s="2">
         <v>22</v>
       </c>
-      <c r="E376" t="s">
+      <c r="D376" t="s">
         <v>28</v>
       </c>
-      <c r="F376">
+      <c r="E376">
         <v>430</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="D377" s="2">
+      <c r="C377" s="2">
         <v>23</v>
       </c>
-      <c r="E377" t="s">
+      <c r="D377" t="s">
         <v>13</v>
       </c>
-      <c r="F377">
+      <c r="E377">
         <v>419</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="D378" s="2">
+      <c r="C378" s="2">
         <v>24</v>
       </c>
-      <c r="E378" t="s">
+      <c r="D378" t="s">
         <v>25</v>
       </c>
-      <c r="F378">
+      <c r="E378">
         <v>470</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:5">
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="D379" s="2">
+      <c r="C379" s="2">
         <v>25</v>
       </c>
-      <c r="E379" t="s">
+      <c r="D379" t="s">
         <v>12</v>
       </c>
-      <c r="F379">
+      <c r="E379">
         <v>470</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="D380" s="2">
+      <c r="C380" s="2">
         <v>26</v>
       </c>
-      <c r="E380" t="s">
+      <c r="D380" t="s">
         <v>26</v>
       </c>
-      <c r="F380">
+      <c r="E380">
         <v>410</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="D381" s="2">
+      <c r="C381" s="2">
         <v>27</v>
       </c>
-      <c r="E381" t="s">
+      <c r="D381" t="s">
         <v>29</v>
       </c>
-      <c r="F381">
+      <c r="E381">
         <v>450</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:5">
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="D382" s="2">
+      <c r="C382" s="2">
         <v>28</v>
       </c>
-      <c r="E382" t="s">
+      <c r="D382" t="s">
         <v>25</v>
       </c>
-      <c r="F382">
+      <c r="E382">
         <v>405</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:5">
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="D383" s="2">
+      <c r="C383" s="2">
         <v>29</v>
       </c>
-      <c r="E383" t="s">
+      <c r="D383" t="s">
         <v>15</v>
       </c>
-      <c r="F383">
+      <c r="E383">
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:5">
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="D384" s="2">
+      <c r="C384" s="2">
         <v>30</v>
       </c>
-      <c r="E384" t="s">
+      <c r="D384" t="s">
         <v>11</v>
       </c>
-      <c r="F384">
+      <c r="E384">
         <v>486</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="D385" s="2">
+      <c r="C385" s="2">
         <v>31</v>
       </c>
-      <c r="E385" t="s">
+      <c r="D385" t="s">
         <v>19</v>
       </c>
-      <c r="F385">
+      <c r="E385">
         <v>538</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="D386" s="2">
+      <c r="C386" s="2">
         <v>32</v>
       </c>
-      <c r="E386" t="s">
+      <c r="D386" t="s">
         <v>25</v>
       </c>
-      <c r="F386">
+      <c r="E386">
         <v>419</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="D387" s="2">
+      <c r="C387" s="2">
         <v>33</v>
       </c>
-      <c r="E387" t="s">
+      <c r="D387" t="s">
         <v>28</v>
       </c>
-      <c r="F387">
+      <c r="E387">
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:5">
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="D388" s="2">
+      <c r="C388" s="2">
         <v>34</v>
       </c>
-      <c r="E388" t="s">
+      <c r="D388" t="s">
         <v>27</v>
       </c>
-      <c r="F388">
+      <c r="E388">
         <v>416</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
-      <c r="D389" t="s">
+    <row r="389" spans="1:5">
+      <c r="C389" t="s">
         <v>3</v>
       </c>
-      <c r="F389">
-        <f>SUM(F2:F388)</f>
+      <c r="E389">
+        <f>SUM(E2:E388)</f>
         <v>178399</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:5">
       <c r="B390" t="s">
         <v>0</v>
       </c>
-      <c r="D390" t="s">
+      <c r="C390" t="s">
         <v>5</v>
       </c>
-      <c r="F390">
+      <c r="E390">
         <v>758195.75</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
-      <c r="D391" t="s">
+    <row r="391" spans="1:5">
+      <c r="C391" t="s">
         <v>2</v>
       </c>
-      <c r="F391">
+      <c r="E391">
         <v>365000</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:5">
       <c r="B392" t="s">
         <v>1</v>
       </c>
-      <c r="D392" t="s">
+      <c r="C392" t="s">
         <v>4</v>
       </c>
-      <c r="F392">
+      <c r="E392">
         <v>393195.75</v>
       </c>
     </row>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="E393" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5925,7 +5925,7 @@
         <v>27</v>
       </c>
       <c r="E388">
-        <v>416</v>
+        <v>496</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="E389">
         <f>SUM(E2:E388)</f>
-        <v>178399</v>
+        <v>178479</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -5945,7 +5945,7 @@
         <v>5</v>
       </c>
       <c r="E390">
-        <v>758195.75</v>
+        <v>758535.75</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -5964,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="E392">
-        <v>393195.75</v>
+        <v>393535.75</v>
       </c>
     </row>
   </sheetData>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -18,6 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="30">
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount = </t>
   </si>
   <si>
@@ -37,12 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">              Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quantity</t>
   </si>
   <si>
     <t xml:space="preserve">    S.No.</t>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="E393" sqref="E393"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,16 +462,16 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5930,7 +5930,7 @@
     </row>
     <row r="389" spans="1:5">
       <c r="C389" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E389">
         <f>SUM(E2:E388)</f>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="390" spans="1:5">
       <c r="B390" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E390">
         <v>758535.75</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="C391" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E391">
         <v>365000</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="392" spans="1:5">
       <c r="B392" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C392" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E392">
         <v>393535.75</v>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="25">
   <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount = </t>
-  </si>
-  <si>
-    <t>Balance =</t>
-  </si>
-  <si>
-    <t>Diesel =</t>
-  </si>
-  <si>
-    <t>Total Quantity =</t>
-  </si>
-  <si>
-    <t>Amount - Diesel =</t>
-  </si>
-  <si>
-    <t>Total Quantity X 4.25 =</t>
   </si>
   <si>
     <t xml:space="preserve">              Counts</t>
@@ -106,6 +88,9 @@
   </si>
   <si>
     <t>kayum</t>
+  </si>
+  <si>
+    <t>irsad</t>
   </si>
 </sst>
 </file>
@@ -444,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,16 +444,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -485,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>486</v>
@@ -499,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>470</v>
@@ -513,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>419</v>
@@ -527,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>416</v>
@@ -541,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>420</v>
@@ -555,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>453</v>
@@ -569,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -583,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>470</v>
@@ -597,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>470</v>
@@ -611,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>419</v>
@@ -625,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>486</v>
@@ -639,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>416</v>
@@ -653,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>420</v>
@@ -667,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>538</v>
@@ -684,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>419</v>
@@ -698,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -712,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>538</v>
@@ -726,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>538</v>
@@ -740,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>368</v>
@@ -754,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>419</v>
@@ -768,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -782,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>538</v>
@@ -796,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>538</v>
@@ -813,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>419</v>
@@ -827,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>538</v>
@@ -841,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>405</v>
@@ -855,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>420</v>
@@ -869,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>538</v>
@@ -883,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>419</v>
@@ -897,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>486</v>
@@ -911,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>470</v>
@@ -925,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>453</v>
@@ -939,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>419</v>
@@ -953,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>420</v>
@@ -967,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -981,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>405</v>
@@ -995,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>538</v>
@@ -1009,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>538</v>
@@ -1023,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>419</v>
@@ -1037,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>486</v>
@@ -1051,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>470</v>
@@ -1065,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>419</v>
@@ -1079,7 +1064,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>453</v>
@@ -1093,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>517</v>
@@ -1107,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>420</v>
@@ -1121,7 +1106,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>538</v>
@@ -1135,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>538</v>
@@ -1149,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>419</v>
@@ -1163,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>453</v>
@@ -1177,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>470</v>
@@ -1191,7 +1176,7 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>405</v>
@@ -1205,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E53">
         <v>500</v>
@@ -1219,7 +1204,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>486</v>
@@ -1233,7 +1218,7 @@
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>419</v>
@@ -1250,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <v>420</v>
@@ -1264,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>419</v>
@@ -1278,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>517</v>
@@ -1292,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>538</v>
@@ -1306,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>470</v>
@@ -1320,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>538</v>
@@ -1334,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>419</v>
@@ -1348,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>453</v>
@@ -1362,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>419</v>
@@ -1376,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <v>420</v>
@@ -1390,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>538</v>
@@ -1404,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>538</v>
@@ -1418,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>419</v>
@@ -1432,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>517</v>
@@ -1446,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>453</v>
@@ -1460,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>419</v>
@@ -1474,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>470</v>
@@ -1488,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>420</v>
@@ -1502,7 +1487,7 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E74">
         <v>500</v>
@@ -1516,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>538</v>
@@ -1530,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>517</v>
@@ -1544,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>419</v>
@@ -1558,7 +1543,7 @@
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>538</v>
@@ -1572,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>419</v>
@@ -1586,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>453</v>
@@ -1600,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>500</v>
@@ -1614,7 +1599,7 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>538</v>
@@ -1631,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>405</v>
@@ -1645,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E84">
         <v>420</v>
@@ -1659,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E85">
         <v>486</v>
@@ -1673,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>517</v>
@@ -1687,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>538</v>
@@ -1701,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <v>538</v>
@@ -1715,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <v>470</v>
@@ -1729,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <v>470</v>
@@ -1743,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>419</v>
@@ -1757,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>453</v>
@@ -1771,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>419</v>
@@ -1785,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E94">
         <v>420</v>
@@ -1799,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>419</v>
@@ -1813,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>405</v>
@@ -1827,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>419</v>
@@ -1841,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E98">
         <v>470</v>
@@ -1855,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E99">
         <v>470</v>
@@ -1869,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>538</v>
@@ -1883,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>453</v>
@@ -1897,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E102">
         <v>486</v>
@@ -1911,7 +1896,7 @@
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E103">
         <v>420</v>
@@ -1925,7 +1910,7 @@
         <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>517</v>
@@ -1939,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>405</v>
@@ -1953,7 +1938,7 @@
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E106">
         <v>470</v>
@@ -1967,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>419</v>
@@ -1981,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E108">
         <v>470</v>
@@ -1995,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>538</v>
@@ -2009,7 +1994,7 @@
         <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E110">
         <v>538</v>
@@ -2023,7 +2008,7 @@
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>453</v>
@@ -2037,7 +2022,7 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E112">
         <v>419</v>
@@ -2051,7 +2036,7 @@
         <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E113">
         <v>517</v>
@@ -2065,7 +2050,7 @@
         <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <v>486</v>
@@ -2082,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>405</v>
@@ -2096,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <v>420</v>
@@ -2110,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>517</v>
@@ -2124,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E118">
         <v>419</v>
@@ -2138,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <v>410</v>
@@ -2152,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E120">
         <v>470</v>
@@ -2166,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E121">
         <v>470</v>
@@ -2180,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E122">
         <v>486</v>
@@ -2194,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E123">
         <v>416</v>
@@ -2208,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E124">
         <v>508</v>
@@ -2222,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E125">
         <v>538</v>
@@ -2236,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>419</v>
@@ -2250,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>453</v>
@@ -2264,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>405</v>
@@ -2278,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E129">
         <v>420</v>
@@ -2292,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>416</v>
@@ -2306,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>517</v>
@@ -2320,7 +2305,7 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E132">
         <v>470</v>
@@ -2334,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E133">
         <v>500</v>
@@ -2348,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>486</v>
@@ -2362,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E135">
         <v>470</v>
@@ -2376,7 +2361,7 @@
         <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <v>410</v>
@@ -2390,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>538</v>
@@ -2404,7 +2389,7 @@
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E138">
         <v>538</v>
@@ -2418,7 +2403,7 @@
         <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E139">
         <v>419</v>
@@ -2432,7 +2417,7 @@
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>453</v>
@@ -2446,7 +2431,7 @@
         <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E141">
         <v>419</v>
@@ -2460,7 +2445,7 @@
         <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>405</v>
@@ -2474,7 +2459,7 @@
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E143">
         <v>420</v>
@@ -2488,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>416</v>
@@ -2502,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E145">
         <v>470</v>
@@ -2516,7 +2501,7 @@
         <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>517</v>
@@ -2530,7 +2515,7 @@
         <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E147">
         <v>470</v>
@@ -2544,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <v>500</v>
@@ -2558,7 +2543,7 @@
         <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E149">
         <v>419</v>
@@ -2572,7 +2557,7 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E150">
         <v>486</v>
@@ -2586,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>410</v>
@@ -2600,7 +2585,7 @@
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E152">
         <v>419</v>
@@ -2614,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E153">
         <v>538</v>
@@ -2628,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E154">
         <v>453</v>
@@ -2645,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E155">
         <v>420</v>
@@ -2659,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>405</v>
@@ -2673,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E157">
         <v>416</v>
@@ -2687,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <v>517</v>
@@ -2701,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E159">
         <v>496</v>
@@ -2715,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E160">
         <v>470</v>
@@ -2729,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>410</v>
@@ -2743,7 +2728,7 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E162">
         <v>538</v>
@@ -2757,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E163">
         <v>486</v>
@@ -2771,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E164">
         <v>453</v>
@@ -2785,7 +2770,7 @@
         <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E165">
         <v>470</v>
@@ -2799,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E166">
         <v>538</v>
@@ -2813,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E167">
         <v>500</v>
@@ -2827,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E168">
         <v>419</v>
@@ -2841,7 +2826,7 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E169">
         <v>430</v>
@@ -2855,7 +2840,7 @@
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E170">
         <v>419</v>
@@ -2869,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E171">
         <v>420</v>
@@ -2883,7 +2868,7 @@
         <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E172">
         <v>500</v>
@@ -2897,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>405</v>
@@ -2911,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E174">
         <v>416</v>
@@ -2925,7 +2910,7 @@
         <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E175">
         <v>470</v>
@@ -2939,10 +2924,10 @@
         <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E176">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -2953,7 +2938,7 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E177">
         <v>538</v>
@@ -2967,7 +2952,7 @@
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E178">
         <v>470</v>
@@ -2981,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E179">
         <v>486</v>
@@ -2995,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <v>453</v>
@@ -3009,7 +2994,7 @@
         <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E181">
         <v>419</v>
@@ -3023,7 +3008,7 @@
         <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E182">
         <v>496</v>
@@ -3037,7 +3022,7 @@
         <v>29</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E183">
         <v>538</v>
@@ -3051,7 +3036,7 @@
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E184">
         <v>419</v>
@@ -3065,7 +3050,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>410</v>
@@ -3079,7 +3064,7 @@
         <v>32</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E186">
         <v>416</v>
@@ -3093,7 +3078,7 @@
         <v>33</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E187">
         <v>470</v>
@@ -3107,7 +3092,7 @@
         <v>34</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>517</v>
@@ -3121,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="D189" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>405</v>
@@ -3135,7 +3120,7 @@
         <v>36</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E190">
         <v>500</v>
@@ -3149,7 +3134,7 @@
         <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E191">
         <v>430</v>
@@ -3163,7 +3148,7 @@
         <v>38</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E192">
         <v>470</v>
@@ -3180,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>405</v>
@@ -3194,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E194">
         <v>453</v>
@@ -3208,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E195">
         <v>420</v>
@@ -3222,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E196">
         <v>470</v>
@@ -3236,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E197">
         <v>496</v>
@@ -3250,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E198">
         <v>470</v>
@@ -3264,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E199">
         <v>486</v>
@@ -3278,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>517</v>
@@ -3292,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E201">
         <v>419</v>
@@ -3306,7 +3291,7 @@
         <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>416</v>
@@ -3320,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E203">
         <v>410</v>
@@ -3334,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E204">
         <v>500</v>
@@ -3348,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E205">
         <v>538</v>
@@ -3362,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E206">
         <v>430</v>
@@ -3376,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E207">
         <v>538</v>
@@ -3390,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E208">
         <v>470</v>
@@ -3404,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E209">
         <v>453</v>
@@ -3418,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E210">
         <v>420</v>
@@ -3432,7 +3417,7 @@
         <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E211">
         <v>470</v>
@@ -3446,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E212">
         <v>410</v>
@@ -3460,7 +3445,7 @@
         <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E213">
         <v>416</v>
@@ -3474,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E214">
         <v>496</v>
@@ -3488,7 +3473,7 @@
         <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E215">
         <v>405</v>
@@ -3502,7 +3487,7 @@
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E216">
         <v>486</v>
@@ -3516,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E217">
         <v>419</v>
@@ -3530,7 +3515,7 @@
         <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E218">
         <v>517</v>
@@ -3544,7 +3529,7 @@
         <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E219">
         <v>538</v>
@@ -3558,7 +3543,7 @@
         <v>28</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E220">
         <v>419</v>
@@ -3572,7 +3557,7 @@
         <v>29</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E221">
         <v>430</v>
@@ -3586,7 +3571,7 @@
         <v>30</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E222">
         <v>470</v>
@@ -3600,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E223">
         <v>538</v>
@@ -3614,7 +3599,7 @@
         <v>32</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E224">
         <v>420</v>
@@ -3628,7 +3613,7 @@
         <v>33</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E225">
         <v>500</v>
@@ -3642,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="D226" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E226">
         <v>470</v>
@@ -3656,7 +3641,7 @@
         <v>35</v>
       </c>
       <c r="D227" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E227">
         <v>416</v>
@@ -3670,7 +3655,7 @@
         <v>36</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E228">
         <v>410</v>
@@ -3684,7 +3669,7 @@
         <v>37</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E229">
         <v>496</v>
@@ -3698,7 +3683,7 @@
         <v>38</v>
       </c>
       <c r="D230" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E230">
         <v>405</v>
@@ -3712,7 +3697,7 @@
         <v>39</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E231">
         <v>486</v>
@@ -3726,7 +3711,7 @@
         <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E232">
         <v>419</v>
@@ -3740,7 +3725,7 @@
         <v>41</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E233">
         <v>430</v>
@@ -3754,7 +3739,7 @@
         <v>42</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E234">
         <v>470</v>
@@ -3768,7 +3753,7 @@
         <v>43</v>
       </c>
       <c r="D235" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E235">
         <v>419</v>
@@ -3782,7 +3767,7 @@
         <v>44</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E236">
         <v>517</v>
@@ -3796,7 +3781,7 @@
         <v>45</v>
       </c>
       <c r="D237" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E237">
         <v>538</v>
@@ -3810,7 +3795,7 @@
         <v>46</v>
       </c>
       <c r="D238" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E238">
         <v>538</v>
@@ -3827,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E239">
         <v>405</v>
@@ -3841,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E240">
         <v>470</v>
@@ -3855,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E241">
         <v>420</v>
@@ -3869,7 +3854,7 @@
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E242">
         <v>538</v>
@@ -3883,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E243">
         <v>500</v>
@@ -3897,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E244">
         <v>453</v>
@@ -3911,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E245">
         <v>470</v>
@@ -3925,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="D246" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E246">
         <v>496</v>
@@ -3939,7 +3924,7 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E247">
         <v>416</v>
@@ -3953,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="D248" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E248">
         <v>538</v>
@@ -3967,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E249">
         <v>419</v>
@@ -3981,7 +3966,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E250">
         <v>430</v>
@@ -3995,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E251">
         <v>419</v>
@@ -4009,7 +3994,7 @@
         <v>14</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E252">
         <v>405</v>
@@ -4023,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E253">
         <v>470</v>
@@ -4037,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E254">
         <v>420</v>
@@ -4051,7 +4036,7 @@
         <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E255">
         <v>470</v>
@@ -4065,7 +4050,7 @@
         <v>18</v>
       </c>
       <c r="D256" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E256">
         <v>538</v>
@@ -4079,7 +4064,7 @@
         <v>19</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E257">
         <v>416</v>
@@ -4093,7 +4078,7 @@
         <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E258">
         <v>410</v>
@@ -4107,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E259">
         <v>453</v>
@@ -4121,7 +4106,7 @@
         <v>22</v>
       </c>
       <c r="D260" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E260">
         <v>496</v>
@@ -4135,7 +4120,7 @@
         <v>23</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E261">
         <v>538</v>
@@ -4149,7 +4134,7 @@
         <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E262">
         <v>430</v>
@@ -4163,7 +4148,7 @@
         <v>25</v>
       </c>
       <c r="D263" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E263">
         <v>419</v>
@@ -4177,7 +4162,7 @@
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E264">
         <v>470</v>
@@ -4191,7 +4176,7 @@
         <v>27</v>
       </c>
       <c r="D265" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E265">
         <v>420</v>
@@ -4205,7 +4190,7 @@
         <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E266">
         <v>470</v>
@@ -4219,10 +4204,10 @@
         <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E267">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4233,7 +4218,7 @@
         <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E268">
         <v>416</v>
@@ -4247,7 +4232,7 @@
         <v>31</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E269">
         <v>410</v>
@@ -4261,7 +4246,7 @@
         <v>32</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E270">
         <v>430</v>
@@ -4275,7 +4260,7 @@
         <v>33</v>
       </c>
       <c r="D271" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E271">
         <v>420</v>
@@ -4289,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="D272" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E272">
         <v>538</v>
@@ -4303,7 +4288,7 @@
         <v>35</v>
       </c>
       <c r="D273" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E273">
         <v>470</v>
@@ -4317,7 +4302,7 @@
         <v>36</v>
       </c>
       <c r="D274" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E274">
         <v>453</v>
@@ -4331,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="D275" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E275">
         <v>470</v>
@@ -4345,7 +4330,7 @@
         <v>38</v>
       </c>
       <c r="D276" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E276">
         <v>405</v>
@@ -4362,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E277">
         <v>405</v>
@@ -4376,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E278">
         <v>420</v>
@@ -4390,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E279">
         <v>517</v>
@@ -4404,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="D280" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E280">
         <v>470</v>
@@ -4418,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="D281" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E281">
         <v>496</v>
@@ -4432,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E282">
         <v>416</v>
@@ -4446,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E283">
         <v>538</v>
@@ -4460,7 +4445,7 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E284">
         <v>419</v>
@@ -4474,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="D285" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E285">
         <v>419</v>
@@ -4488,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E286">
         <v>500</v>
@@ -4502,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E287">
         <v>420</v>
@@ -4516,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E288">
         <v>405</v>
@@ -4530,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="D289" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E289">
         <v>470</v>
@@ -4544,7 +4529,7 @@
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E290">
         <v>416</v>
@@ -4558,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="D291" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E291">
         <v>419</v>
@@ -4572,7 +4557,7 @@
         <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E292">
         <v>517</v>
@@ -4586,7 +4571,7 @@
         <v>17</v>
       </c>
       <c r="D293" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E293">
         <v>496</v>
@@ -4600,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E294">
         <v>410</v>
@@ -4614,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E295">
         <v>470</v>
@@ -4628,7 +4613,7 @@
         <v>20</v>
       </c>
       <c r="D296" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E296">
         <v>538</v>
@@ -4642,7 +4627,7 @@
         <v>21</v>
       </c>
       <c r="D297" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E297">
         <v>419</v>
@@ -4656,7 +4641,7 @@
         <v>22</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E298">
         <v>500</v>
@@ -4670,7 +4655,7 @@
         <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E299">
         <v>419</v>
@@ -4684,7 +4669,7 @@
         <v>24</v>
       </c>
       <c r="D300" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E300">
         <v>420</v>
@@ -4698,7 +4683,7 @@
         <v>25</v>
       </c>
       <c r="D301" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E301">
         <v>405</v>
@@ -4712,7 +4697,7 @@
         <v>26</v>
       </c>
       <c r="D302" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E302">
         <v>470</v>
@@ -4726,7 +4711,7 @@
         <v>27</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E303">
         <v>486</v>
@@ -4740,7 +4725,7 @@
         <v>28</v>
       </c>
       <c r="D304" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E304">
         <v>416</v>
@@ -4754,7 +4739,7 @@
         <v>29</v>
       </c>
       <c r="D305" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E305">
         <v>538</v>
@@ -4768,7 +4753,7 @@
         <v>30</v>
       </c>
       <c r="D306" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E306">
         <v>486</v>
@@ -4782,7 +4767,7 @@
         <v>31</v>
       </c>
       <c r="D307" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E307">
         <v>470</v>
@@ -4796,7 +4781,7 @@
         <v>32</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E308">
         <v>419</v>
@@ -4810,7 +4795,7 @@
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E309">
         <v>410</v>
@@ -4827,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E310">
         <v>405</v>
@@ -4841,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="D311" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E311">
         <v>470</v>
@@ -4855,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="D312" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E312">
         <v>496</v>
@@ -4869,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="D313" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E313">
         <v>416</v>
@@ -4883,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E314">
         <v>470</v>
@@ -4897,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="D315" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E315">
         <v>517</v>
@@ -4911,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="D316" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E316">
         <v>420</v>
@@ -4925,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E317">
         <v>486</v>
@@ -4939,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E318">
         <v>410</v>
@@ -4953,7 +4938,7 @@
         <v>10</v>
       </c>
       <c r="D319" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E319">
         <v>538</v>
@@ -4967,7 +4952,7 @@
         <v>11</v>
       </c>
       <c r="D320" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E320">
         <v>430</v>
@@ -4981,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="D321" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E321">
         <v>538</v>
@@ -4995,7 +4980,7 @@
         <v>13</v>
       </c>
       <c r="D322" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E322">
         <v>419</v>
@@ -5009,7 +4994,7 @@
         <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E323">
         <v>470</v>
@@ -5023,7 +5008,7 @@
         <v>15</v>
       </c>
       <c r="D324" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E324">
         <v>419</v>
@@ -5037,7 +5022,7 @@
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E325">
         <v>470</v>
@@ -5051,7 +5036,7 @@
         <v>17</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E326">
         <v>416</v>
@@ -5065,7 +5050,7 @@
         <v>18</v>
       </c>
       <c r="D327" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E327">
         <v>405</v>
@@ -5079,7 +5064,7 @@
         <v>19</v>
       </c>
       <c r="D328" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E328">
         <v>486</v>
@@ -5093,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="D329" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E329">
         <v>420</v>
@@ -5107,7 +5092,7 @@
         <v>21</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E330">
         <v>430</v>
@@ -5121,7 +5106,7 @@
         <v>22</v>
       </c>
       <c r="D331" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E331">
         <v>517</v>
@@ -5135,7 +5120,7 @@
         <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E332">
         <v>500</v>
@@ -5149,7 +5134,7 @@
         <v>24</v>
       </c>
       <c r="D333" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E333">
         <v>496</v>
@@ -5163,7 +5148,7 @@
         <v>25</v>
       </c>
       <c r="D334" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E334">
         <v>410</v>
@@ -5177,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="D335" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E335">
         <v>538</v>
@@ -5191,7 +5176,7 @@
         <v>27</v>
       </c>
       <c r="D336" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E336">
         <v>470</v>
@@ -5205,7 +5190,7 @@
         <v>28</v>
       </c>
       <c r="D337" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E337">
         <v>419</v>
@@ -5219,7 +5204,7 @@
         <v>29</v>
       </c>
       <c r="D338" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E338">
         <v>538</v>
@@ -5233,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E339">
         <v>470</v>
@@ -5247,7 +5232,7 @@
         <v>31</v>
       </c>
       <c r="D340" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E340">
         <v>419</v>
@@ -5261,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="D341" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E341">
         <v>405</v>
@@ -5275,7 +5260,7 @@
         <v>33</v>
       </c>
       <c r="D342" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E342">
         <v>416</v>
@@ -5289,7 +5274,7 @@
         <v>34</v>
       </c>
       <c r="D343" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E343">
         <v>420</v>
@@ -5303,7 +5288,7 @@
         <v>35</v>
       </c>
       <c r="D344" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E344">
         <v>486</v>
@@ -5317,7 +5302,7 @@
         <v>36</v>
       </c>
       <c r="D345" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E345">
         <v>517</v>
@@ -5331,7 +5316,7 @@
         <v>37</v>
       </c>
       <c r="D346" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E346">
         <v>500</v>
@@ -5345,7 +5330,7 @@
         <v>38</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E347">
         <v>410</v>
@@ -5359,7 +5344,7 @@
         <v>39</v>
       </c>
       <c r="D348" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E348">
         <v>419</v>
@@ -5373,7 +5358,7 @@
         <v>40</v>
       </c>
       <c r="D349" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E349">
         <v>496</v>
@@ -5387,7 +5372,7 @@
         <v>41</v>
       </c>
       <c r="D350" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E350">
         <v>470</v>
@@ -5401,7 +5386,7 @@
         <v>42</v>
       </c>
       <c r="D351" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E351">
         <v>538</v>
@@ -5415,7 +5400,7 @@
         <v>43</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E352">
         <v>470</v>
@@ -5429,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E353">
         <v>538</v>
@@ -5443,7 +5428,7 @@
         <v>45</v>
       </c>
       <c r="D354" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E354">
         <v>470</v>
@@ -5460,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E355">
         <v>405</v>
@@ -5474,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="D356" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E356">
         <v>470</v>
@@ -5488,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="D357" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E357">
         <v>420</v>
@@ -5502,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="D358" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E358">
         <v>486</v>
@@ -5516,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="D359" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E359">
         <v>496</v>
@@ -5530,7 +5515,7 @@
         <v>6</v>
       </c>
       <c r="D360" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E360">
         <v>419</v>
@@ -5544,7 +5529,7 @@
         <v>7</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E361">
         <v>410</v>
@@ -5558,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="D362" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E362">
         <v>538</v>
@@ -5572,7 +5557,7 @@
         <v>9</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E363">
         <v>430</v>
@@ -5586,7 +5571,7 @@
         <v>10</v>
       </c>
       <c r="D364" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E364">
         <v>470</v>
@@ -5600,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="D365" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E365">
         <v>486</v>
@@ -5614,7 +5599,7 @@
         <v>12</v>
       </c>
       <c r="D366" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E366">
         <v>405</v>
@@ -5628,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="D367" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E367">
         <v>419</v>
@@ -5642,7 +5627,7 @@
         <v>14</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E368">
         <v>410</v>
@@ -5656,7 +5641,7 @@
         <v>15</v>
       </c>
       <c r="D369" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E369">
         <v>500</v>
@@ -5670,7 +5655,7 @@
         <v>16</v>
       </c>
       <c r="D370" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E370">
         <v>420</v>
@@ -5684,7 +5669,7 @@
         <v>17</v>
       </c>
       <c r="D371" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E371">
         <v>450</v>
@@ -5698,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="D372" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E372">
         <v>538</v>
@@ -5712,7 +5697,7 @@
         <v>19</v>
       </c>
       <c r="D373" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E373">
         <v>419</v>
@@ -5726,7 +5711,7 @@
         <v>20</v>
       </c>
       <c r="D374" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E374">
         <v>517</v>
@@ -5740,7 +5725,7 @@
         <v>21</v>
       </c>
       <c r="D375" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E375">
         <v>496</v>
@@ -5754,7 +5739,7 @@
         <v>22</v>
       </c>
       <c r="D376" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E376">
         <v>430</v>
@@ -5768,7 +5753,7 @@
         <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E377">
         <v>419</v>
@@ -5782,7 +5767,7 @@
         <v>24</v>
       </c>
       <c r="D378" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E378">
         <v>470</v>
@@ -5796,7 +5781,7 @@
         <v>25</v>
       </c>
       <c r="D379" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E379">
         <v>470</v>
@@ -5810,7 +5795,7 @@
         <v>26</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E380">
         <v>410</v>
@@ -5824,7 +5809,7 @@
         <v>27</v>
       </c>
       <c r="D381" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E381">
         <v>450</v>
@@ -5838,7 +5823,7 @@
         <v>28</v>
       </c>
       <c r="D382" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E382">
         <v>405</v>
@@ -5852,7 +5837,7 @@
         <v>29</v>
       </c>
       <c r="D383" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E383">
         <v>420</v>
@@ -5866,7 +5851,7 @@
         <v>30</v>
       </c>
       <c r="D384" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E384">
         <v>486</v>
@@ -5880,7 +5865,7 @@
         <v>31</v>
       </c>
       <c r="D385" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E385">
         <v>538</v>
@@ -5894,7 +5879,7 @@
         <v>32</v>
       </c>
       <c r="D386" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E386">
         <v>419</v>
@@ -5908,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="D387" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E387">
         <v>430</v>
@@ -5922,49 +5907,439 @@
         <v>34</v>
       </c>
       <c r="D388" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E388">
         <v>496</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="C389" t="s">
+      <c r="B389" s="1">
+        <v>43480</v>
+      </c>
+      <c r="C389" s="2">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>17</v>
+      </c>
+      <c r="E389">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="B390" s="1"/>
+      <c r="C390" s="2">
+        <v>2</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="C391" s="2">
+        <v>3</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="C392" s="2">
+        <v>4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>9</v>
+      </c>
+      <c r="E392">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="C393" s="2">
         <v>5</v>
       </c>
-      <c r="E389">
-        <f>SUM(E2:E388)</f>
-        <v>178479</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="B390" t="s">
-        <v>2</v>
-      </c>
-      <c r="C390" t="s">
+      <c r="D393" t="s">
+        <v>8</v>
+      </c>
+      <c r="E393">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="C394" s="2">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="C395" s="2">
         <v>7</v>
       </c>
-      <c r="E390">
-        <v>758535.75</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="C391" t="s">
-        <v>4</v>
-      </c>
-      <c r="E391">
-        <v>365000</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="B392" t="s">
-        <v>3</v>
-      </c>
-      <c r="C392" t="s">
+      <c r="D395" t="s">
+        <v>23</v>
+      </c>
+      <c r="E395">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="C396" s="2">
+        <v>8</v>
+      </c>
+      <c r="D396" t="s">
+        <v>18</v>
+      </c>
+      <c r="E396">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="C397" s="2">
+        <v>9</v>
+      </c>
+      <c r="D397" t="s">
+        <v>20</v>
+      </c>
+      <c r="E397">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="C398" s="2">
+        <v>10</v>
+      </c>
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="C399" s="2">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="C400" s="2">
+        <v>12</v>
+      </c>
+      <c r="D400" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="401" spans="3:5">
+      <c r="C401" s="2">
+        <v>13</v>
+      </c>
+      <c r="D401" t="s">
+        <v>21</v>
+      </c>
+      <c r="E401">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="402" spans="3:5">
+      <c r="C402" s="2">
+        <v>14</v>
+      </c>
+      <c r="D402" t="s">
+        <v>22</v>
+      </c>
+      <c r="E402">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="403" spans="3:5">
+      <c r="C403" s="2">
+        <v>15</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5">
+      <c r="C404" s="2">
+        <v>16</v>
+      </c>
+      <c r="D404" t="s">
         <v>6</v>
       </c>
-      <c r="E392">
-        <v>393535.75</v>
+      <c r="E404">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="405" spans="3:5">
+      <c r="C405" s="2">
+        <v>17</v>
+      </c>
+      <c r="D405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E405">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="406" spans="3:5">
+      <c r="C406" s="2">
+        <v>18</v>
+      </c>
+      <c r="D406" t="s">
+        <v>23</v>
+      </c>
+      <c r="E406">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="407" spans="3:5">
+      <c r="C407" s="2">
+        <v>19</v>
+      </c>
+      <c r="D407" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="408" spans="3:5">
+      <c r="C408" s="2">
+        <v>20</v>
+      </c>
+      <c r="D408" t="s">
+        <v>8</v>
+      </c>
+      <c r="E408">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="409" spans="3:5">
+      <c r="C409" s="2">
+        <v>21</v>
+      </c>
+      <c r="D409" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="410" spans="3:5">
+      <c r="C410" s="2">
+        <v>22</v>
+      </c>
+      <c r="D410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="3:5">
+      <c r="C411" s="2">
+        <v>23</v>
+      </c>
+      <c r="D411" t="s">
+        <v>17</v>
+      </c>
+      <c r="E411">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" spans="3:5">
+      <c r="C412" s="2">
+        <v>24</v>
+      </c>
+      <c r="D412" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="413" spans="3:5">
+      <c r="C413" s="2">
+        <v>25</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="414" spans="3:5">
+      <c r="C414" s="2">
+        <v>26</v>
+      </c>
+      <c r="D414" t="s">
+        <v>24</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="3:5">
+      <c r="C415" s="2">
+        <v>27</v>
+      </c>
+      <c r="D415" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5">
+      <c r="C416" s="2">
+        <v>28</v>
+      </c>
+      <c r="D416" t="s">
+        <v>21</v>
+      </c>
+      <c r="E416">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5">
+      <c r="C417" s="2">
+        <v>29</v>
+      </c>
+      <c r="D417" t="s">
+        <v>23</v>
+      </c>
+      <c r="E417">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="418" spans="3:5">
+      <c r="C418" s="2">
+        <v>30</v>
+      </c>
+      <c r="D418" t="s">
+        <v>13</v>
+      </c>
+      <c r="E418">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5">
+      <c r="C419" s="2">
+        <v>31</v>
+      </c>
+      <c r="D419" t="s">
+        <v>9</v>
+      </c>
+      <c r="E419">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="420" spans="3:5">
+      <c r="C420" s="2">
+        <v>32</v>
+      </c>
+      <c r="D420" t="s">
+        <v>5</v>
+      </c>
+      <c r="E420">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5">
+      <c r="C421" s="2">
+        <v>33</v>
+      </c>
+      <c r="D421" t="s">
+        <v>8</v>
+      </c>
+      <c r="E421">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="422" spans="3:5">
+      <c r="C422" s="2">
+        <v>34</v>
+      </c>
+      <c r="D422" t="s">
+        <v>11</v>
+      </c>
+      <c r="E422">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="423" spans="3:5">
+      <c r="C423" s="2">
+        <v>35</v>
+      </c>
+      <c r="D423" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5">
+      <c r="C424" s="2">
+        <v>36</v>
+      </c>
+      <c r="D424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E424">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="425" spans="3:5">
+      <c r="C425" s="2">
+        <v>37</v>
+      </c>
+      <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5">
+      <c r="C426" s="2">
+        <v>38</v>
+      </c>
+      <c r="D426" t="s">
+        <v>24</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5">
+      <c r="C427" s="2"/>
+      <c r="E427">
+        <f>SUM(E2:E426)</f>
+        <v>195003</v>
       </c>
     </row>
   </sheetData>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6252,7 +6252,7 @@
         <v>31</v>
       </c>
       <c r="D419" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E419">
         <v>420</v>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -4,19 +4,214 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Diesel" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>acer</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+balance
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+balance
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:TO DAD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="32">
   <si>
     <t>Quantity</t>
   </si>
@@ -92,18 +287,52 @@
   <si>
     <t>irsad</t>
   </si>
+  <si>
+    <t>poclain</t>
+  </si>
+  <si>
+    <t>sabir jcb</t>
+  </si>
+  <si>
+    <t>Zztotal</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>zzcash</t>
+  </si>
+  <si>
+    <t>Total Diesel</t>
+  </si>
+  <si>
+    <t>BY COLUMN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,10 +355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E419" sqref="E419"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5914,6 +6144,9 @@
       </c>
     </row>
     <row r="389" spans="1:5">
+      <c r="A389">
+        <v>388</v>
+      </c>
       <c r="B389" s="1">
         <v>43480</v>
       </c>
@@ -5928,6 +6161,9 @@
       </c>
     </row>
     <row r="390" spans="1:5">
+      <c r="A390">
+        <v>389</v>
+      </c>
       <c r="B390" s="1"/>
       <c r="C390" s="2">
         <v>2</v>
@@ -5940,6 +6176,9 @@
       </c>
     </row>
     <row r="391" spans="1:5">
+      <c r="A391">
+        <v>390</v>
+      </c>
       <c r="C391" s="2">
         <v>3</v>
       </c>
@@ -5951,6 +6190,9 @@
       </c>
     </row>
     <row r="392" spans="1:5">
+      <c r="A392">
+        <v>391</v>
+      </c>
       <c r="C392" s="2">
         <v>4</v>
       </c>
@@ -5962,6 +6204,9 @@
       </c>
     </row>
     <row r="393" spans="1:5">
+      <c r="A393">
+        <v>392</v>
+      </c>
       <c r="C393" s="2">
         <v>5</v>
       </c>
@@ -5973,6 +6218,9 @@
       </c>
     </row>
     <row r="394" spans="1:5">
+      <c r="A394">
+        <v>393</v>
+      </c>
       <c r="C394" s="2">
         <v>6</v>
       </c>
@@ -5984,6 +6232,9 @@
       </c>
     </row>
     <row r="395" spans="1:5">
+      <c r="A395">
+        <v>394</v>
+      </c>
       <c r="C395" s="2">
         <v>7</v>
       </c>
@@ -5995,6 +6246,9 @@
       </c>
     </row>
     <row r="396" spans="1:5">
+      <c r="A396">
+        <v>395</v>
+      </c>
       <c r="C396" s="2">
         <v>8</v>
       </c>
@@ -6006,6 +6260,9 @@
       </c>
     </row>
     <row r="397" spans="1:5">
+      <c r="A397">
+        <v>396</v>
+      </c>
       <c r="C397" s="2">
         <v>9</v>
       </c>
@@ -6017,6 +6274,9 @@
       </c>
     </row>
     <row r="398" spans="1:5">
+      <c r="A398">
+        <v>397</v>
+      </c>
       <c r="C398" s="2">
         <v>10</v>
       </c>
@@ -6028,6 +6288,9 @@
       </c>
     </row>
     <row r="399" spans="1:5">
+      <c r="A399">
+        <v>398</v>
+      </c>
       <c r="C399" s="2">
         <v>11</v>
       </c>
@@ -6039,6 +6302,9 @@
       </c>
     </row>
     <row r="400" spans="1:5">
+      <c r="A400">
+        <v>399</v>
+      </c>
       <c r="C400" s="2">
         <v>12</v>
       </c>
@@ -6049,7 +6315,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="401" spans="3:5">
+    <row r="401" spans="1:5">
+      <c r="A401">
+        <v>400</v>
+      </c>
       <c r="C401" s="2">
         <v>13</v>
       </c>
@@ -6060,7 +6329,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="402" spans="3:5">
+    <row r="402" spans="1:5">
+      <c r="A402">
+        <v>401</v>
+      </c>
       <c r="C402" s="2">
         <v>14</v>
       </c>
@@ -6071,7 +6343,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="403" spans="3:5">
+    <row r="403" spans="1:5">
+      <c r="A403">
+        <v>402</v>
+      </c>
       <c r="C403" s="2">
         <v>15</v>
       </c>
@@ -6082,7 +6357,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="404" spans="3:5">
+    <row r="404" spans="1:5">
+      <c r="A404">
+        <v>403</v>
+      </c>
       <c r="C404" s="2">
         <v>16</v>
       </c>
@@ -6093,7 +6371,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="405" spans="3:5">
+    <row r="405" spans="1:5">
+      <c r="A405">
+        <v>404</v>
+      </c>
       <c r="C405" s="2">
         <v>17</v>
       </c>
@@ -6104,7 +6385,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="406" spans="3:5">
+    <row r="406" spans="1:5">
+      <c r="A406">
+        <v>405</v>
+      </c>
       <c r="C406" s="2">
         <v>18</v>
       </c>
@@ -6115,7 +6399,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="407" spans="3:5">
+    <row r="407" spans="1:5">
+      <c r="A407">
+        <v>406</v>
+      </c>
       <c r="C407" s="2">
         <v>19</v>
       </c>
@@ -6126,7 +6413,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="408" spans="3:5">
+    <row r="408" spans="1:5">
+      <c r="A408">
+        <v>407</v>
+      </c>
       <c r="C408" s="2">
         <v>20</v>
       </c>
@@ -6137,7 +6427,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="409" spans="3:5">
+    <row r="409" spans="1:5">
+      <c r="A409">
+        <v>408</v>
+      </c>
       <c r="C409" s="2">
         <v>21</v>
       </c>
@@ -6148,7 +6441,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="410" spans="3:5">
+    <row r="410" spans="1:5">
+      <c r="A410">
+        <v>409</v>
+      </c>
       <c r="C410" s="2">
         <v>22</v>
       </c>
@@ -6159,7 +6455,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="3:5">
+    <row r="411" spans="1:5">
+      <c r="A411">
+        <v>410</v>
+      </c>
       <c r="C411" s="2">
         <v>23</v>
       </c>
@@ -6170,7 +6469,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="412" spans="3:5">
+    <row r="412" spans="1:5">
+      <c r="A412">
+        <v>411</v>
+      </c>
       <c r="C412" s="2">
         <v>24</v>
       </c>
@@ -6181,7 +6483,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="413" spans="3:5">
+    <row r="413" spans="1:5">
+      <c r="A413">
+        <v>412</v>
+      </c>
       <c r="C413" s="2">
         <v>25</v>
       </c>
@@ -6192,7 +6497,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="414" spans="3:5">
+    <row r="414" spans="1:5">
+      <c r="A414">
+        <v>413</v>
+      </c>
       <c r="C414" s="2">
         <v>26</v>
       </c>
@@ -6203,7 +6511,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:5">
+    <row r="415" spans="1:5">
+      <c r="A415">
+        <v>414</v>
+      </c>
       <c r="C415" s="2">
         <v>27</v>
       </c>
@@ -6214,7 +6525,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="416" spans="3:5">
+    <row r="416" spans="1:5">
+      <c r="A416">
+        <v>415</v>
+      </c>
       <c r="C416" s="2">
         <v>28</v>
       </c>
@@ -6225,7 +6539,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="417" spans="3:5">
+    <row r="417" spans="1:5">
+      <c r="A417">
+        <v>416</v>
+      </c>
       <c r="C417" s="2">
         <v>29</v>
       </c>
@@ -6236,7 +6553,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="418" spans="3:5">
+    <row r="418" spans="1:5">
+      <c r="A418">
+        <v>417</v>
+      </c>
       <c r="C418" s="2">
         <v>30</v>
       </c>
@@ -6247,7 +6567,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="419" spans="3:5">
+    <row r="419" spans="1:5">
+      <c r="A419">
+        <v>418</v>
+      </c>
       <c r="C419" s="2">
         <v>31</v>
       </c>
@@ -6258,7 +6581,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="3:5">
+    <row r="420" spans="1:5">
+      <c r="A420">
+        <v>419</v>
+      </c>
       <c r="C420" s="2">
         <v>32</v>
       </c>
@@ -6269,7 +6595,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="421" spans="3:5">
+    <row r="421" spans="1:5">
+      <c r="A421">
+        <v>420</v>
+      </c>
       <c r="C421" s="2">
         <v>33</v>
       </c>
@@ -6280,7 +6609,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="422" spans="3:5">
+    <row r="422" spans="1:5">
+      <c r="A422">
+        <v>421</v>
+      </c>
       <c r="C422" s="2">
         <v>34</v>
       </c>
@@ -6291,7 +6623,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="423" spans="3:5">
+    <row r="423" spans="1:5">
+      <c r="A423">
+        <v>422</v>
+      </c>
       <c r="C423" s="2">
         <v>35</v>
       </c>
@@ -6302,7 +6637,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="424" spans="3:5">
+    <row r="424" spans="1:5">
+      <c r="A424">
+        <v>423</v>
+      </c>
       <c r="C424" s="2">
         <v>36</v>
       </c>
@@ -6313,7 +6651,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="425" spans="3:5">
+    <row r="425" spans="1:5">
+      <c r="A425">
+        <v>424</v>
+      </c>
       <c r="C425" s="2">
         <v>37</v>
       </c>
@@ -6324,7 +6665,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="426" spans="3:5">
+    <row r="426" spans="1:5">
+      <c r="A426">
+        <v>425</v>
+      </c>
       <c r="C426" s="2">
         <v>38</v>
       </c>
@@ -6335,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:5">
+    <row r="427" spans="1:5">
       <c r="C427" s="2"/>
       <c r="E427">
         <f>SUM(E2:E426)</f>
@@ -6350,13 +6694,1090 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C1" s="3">
+        <v>43469</v>
+      </c>
+      <c r="D1" s="3">
+        <v>43470</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43471</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43472</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43473</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43474</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43475</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43476</v>
+      </c>
+      <c r="K1" s="3">
+        <v>43477</v>
+      </c>
+      <c r="L1" s="3">
+        <v>43478</v>
+      </c>
+      <c r="M1" s="3">
+        <v>43479</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
+      </c>
+      <c r="L2">
+        <v>2000</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUM(B2:M2)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2000</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3">
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <f>SUM(B3:M3)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>1500</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>1500</v>
+      </c>
+      <c r="I4">
+        <v>1500</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
+      <c r="N4">
+        <f>SUM(B4:M4)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2500</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>2000</v>
+      </c>
+      <c r="N5">
+        <f>SUM(B5:M5)</f>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>1500</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6">
+        <v>1910</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+      <c r="N6">
+        <f>SUM(B6:M6)</f>
+        <v>19410</v>
+      </c>
+      <c r="O6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>1500</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2500</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="N7">
+        <f>SUM(B7:M7)</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2500</v>
+      </c>
+      <c r="L8">
+        <v>2000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>SUM(B8:M8)</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+      <c r="N9">
+        <f>SUM(B9:M9)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2000</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2000</v>
+      </c>
+      <c r="N10">
+        <f>SUM(B10:M10)</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
+      <c r="N11">
+        <f>SUM(B11:M11)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12">
+        <v>1500</v>
+      </c>
+      <c r="H12">
+        <v>1500</v>
+      </c>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12">
+        <v>1500</v>
+      </c>
+      <c r="K12">
+        <v>1500</v>
+      </c>
+      <c r="L12">
+        <v>1500</v>
+      </c>
+      <c r="M12">
+        <v>1500</v>
+      </c>
+      <c r="N12">
+        <f>SUM(B12:M12)</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>3500</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3500</v>
+      </c>
+      <c r="E13">
+        <v>3500</v>
+      </c>
+      <c r="F13">
+        <v>5000</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>5000</v>
+      </c>
+      <c r="I13">
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>5000</v>
+      </c>
+      <c r="K13">
+        <v>5000</v>
+      </c>
+      <c r="L13">
+        <v>3000</v>
+      </c>
+      <c r="M13">
+        <v>5000</v>
+      </c>
+      <c r="N13">
+        <f>SUM(B13:M13)</f>
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2500</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>SUM(B14:M14)</f>
+        <v>14500</v>
+      </c>
+      <c r="O14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <v>2000</v>
+      </c>
+      <c r="I15">
+        <v>1500</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15">
+        <v>1500</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2500</v>
+      </c>
+      <c r="N15">
+        <f>SUM(B15:M15)</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>8000</v>
+      </c>
+      <c r="C16">
+        <v>13000</v>
+      </c>
+      <c r="D16">
+        <v>6000</v>
+      </c>
+      <c r="E16">
+        <v>6000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6000</v>
+      </c>
+      <c r="I16">
+        <v>4000</v>
+      </c>
+      <c r="J16">
+        <v>4000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>SUM(B16:M16)</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>SUM(B17:M17)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2500</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>2500</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>2500</v>
+      </c>
+      <c r="L18">
+        <v>2500</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>SUM(B18:M18)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>SUM(B19:M19)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1500</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>1560</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2000</v>
+      </c>
+      <c r="L20">
+        <v>2000</v>
+      </c>
+      <c r="M20">
+        <v>2000</v>
+      </c>
+      <c r="N20">
+        <f>SUM(B20:M20)</f>
+        <v>15060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2000</v>
+      </c>
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21">
+        <f>SUM(B21:M21)</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+      <c r="G22">
+        <v>2940</v>
+      </c>
+      <c r="H22">
+        <v>5000</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+      <c r="J22">
+        <v>5090</v>
+      </c>
+      <c r="K22">
+        <v>3500</v>
+      </c>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22">
+        <v>3500</v>
+      </c>
+      <c r="N22">
+        <f>SUM(B22:M22)</f>
+        <v>28530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>27000</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>19000</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>29500</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
+        <v>25000</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F2:F22)</f>
+        <v>27000</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G2:G22)</f>
+        <v>30500</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H2:H22)</f>
+        <v>40500</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I2:I22)</f>
+        <v>40500</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J2:J22)</f>
+        <v>36500</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K2:K22)</f>
+        <v>28500</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L2:L22)</f>
+        <v>28500</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M2:M22)</f>
+        <v>32500</v>
+      </c>
+      <c r="N23">
+        <f>SUM(B23:M23)</f>
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <f>SUM(N2:N22)</f>
+        <v>365000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:P24">
+    <sortCondition ref="A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5633,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="E352">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6683,7 +6683,7 @@
       <c r="C427" s="2"/>
       <c r="E427">
         <f>SUM(E2:E426)</f>
-        <v>195003</v>
+        <v>194963</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="31">
   <si>
     <t>Quantity</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>kayum</t>
-  </si>
-  <si>
-    <t>irsad</t>
   </si>
   <si>
     <t>poclain</t>
@@ -661,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="E354" sqref="E354"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6144,547 +6141,13 @@
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389">
-        <v>388</v>
-      </c>
-      <c r="B389" s="1">
-        <v>43480</v>
-      </c>
-      <c r="C389" s="2">
-        <v>1</v>
-      </c>
-      <c r="D389" t="s">
-        <v>17</v>
-      </c>
       <c r="E389">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390">
-        <v>389</v>
-      </c>
-      <c r="B390" s="1"/>
-      <c r="C390" s="2">
-        <v>2</v>
-      </c>
-      <c r="D390" t="s">
-        <v>12</v>
-      </c>
-      <c r="E390">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391">
-        <v>390</v>
-      </c>
-      <c r="C391" s="2">
-        <v>3</v>
-      </c>
-      <c r="D391" t="s">
-        <v>6</v>
-      </c>
-      <c r="E391">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392">
-        <v>391</v>
-      </c>
-      <c r="C392" s="2">
-        <v>4</v>
-      </c>
-      <c r="D392" t="s">
-        <v>9</v>
-      </c>
-      <c r="E392">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393">
-        <v>392</v>
-      </c>
-      <c r="C393" s="2">
-        <v>5</v>
-      </c>
-      <c r="D393" t="s">
-        <v>8</v>
-      </c>
-      <c r="E393">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394">
-        <v>393</v>
-      </c>
-      <c r="C394" s="2">
-        <v>6</v>
-      </c>
-      <c r="D394" t="s">
-        <v>5</v>
-      </c>
-      <c r="E394">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395">
-        <v>394</v>
-      </c>
-      <c r="C395" s="2">
-        <v>7</v>
-      </c>
-      <c r="D395" t="s">
-        <v>23</v>
-      </c>
-      <c r="E395">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396">
-        <v>395</v>
-      </c>
-      <c r="C396" s="2">
-        <v>8</v>
-      </c>
-      <c r="D396" t="s">
-        <v>18</v>
-      </c>
-      <c r="E396">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397">
-        <v>396</v>
-      </c>
-      <c r="C397" s="2">
-        <v>9</v>
-      </c>
-      <c r="D397" t="s">
-        <v>20</v>
-      </c>
-      <c r="E397">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398">
-        <v>397</v>
-      </c>
-      <c r="C398" s="2">
-        <v>10</v>
-      </c>
-      <c r="D398" t="s">
-        <v>7</v>
-      </c>
-      <c r="E398">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399">
-        <v>398</v>
-      </c>
-      <c r="C399" s="2">
-        <v>11</v>
-      </c>
-      <c r="D399" t="s">
-        <v>13</v>
-      </c>
-      <c r="E399">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400">
-        <v>399</v>
-      </c>
-      <c r="C400" s="2">
-        <v>12</v>
-      </c>
-      <c r="D400" t="s">
-        <v>15</v>
-      </c>
-      <c r="E400">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401">
-        <v>400</v>
-      </c>
-      <c r="C401" s="2">
-        <v>13</v>
-      </c>
-      <c r="D401" t="s">
-        <v>21</v>
-      </c>
-      <c r="E401">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402">
-        <v>401</v>
-      </c>
-      <c r="C402" s="2">
-        <v>14</v>
-      </c>
-      <c r="D402" t="s">
-        <v>22</v>
-      </c>
-      <c r="E402">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="A403">
-        <v>402</v>
-      </c>
-      <c r="C403" s="2">
-        <v>15</v>
-      </c>
-      <c r="D403" t="s">
-        <v>12</v>
-      </c>
-      <c r="E403">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404">
-        <v>403</v>
-      </c>
-      <c r="C404" s="2">
-        <v>16</v>
-      </c>
-      <c r="D404" t="s">
-        <v>6</v>
-      </c>
-      <c r="E404">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405">
-        <v>404</v>
-      </c>
-      <c r="C405" s="2">
-        <v>17</v>
-      </c>
-      <c r="D405" t="s">
-        <v>9</v>
-      </c>
-      <c r="E405">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406">
-        <v>405</v>
-      </c>
-      <c r="C406" s="2">
-        <v>18</v>
-      </c>
-      <c r="D406" t="s">
-        <v>23</v>
-      </c>
-      <c r="E406">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407">
-        <v>406</v>
-      </c>
-      <c r="C407" s="2">
-        <v>19</v>
-      </c>
-      <c r="D407" t="s">
-        <v>5</v>
-      </c>
-      <c r="E407">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408">
-        <v>407</v>
-      </c>
-      <c r="C408" s="2">
-        <v>20</v>
-      </c>
-      <c r="D408" t="s">
-        <v>8</v>
-      </c>
-      <c r="E408">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409">
-        <v>408</v>
-      </c>
-      <c r="C409" s="2">
-        <v>21</v>
-      </c>
-      <c r="D409" t="s">
-        <v>11</v>
-      </c>
-      <c r="E409">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410">
-        <v>409</v>
-      </c>
-      <c r="C410" s="2">
-        <v>22</v>
-      </c>
-      <c r="D410" t="s">
-        <v>20</v>
-      </c>
-      <c r="E410">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411">
-        <v>410</v>
-      </c>
-      <c r="C411" s="2">
-        <v>23</v>
-      </c>
-      <c r="D411" t="s">
-        <v>17</v>
-      </c>
-      <c r="E411">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412">
-        <v>411</v>
-      </c>
-      <c r="C412" s="2">
-        <v>24</v>
-      </c>
-      <c r="D412" t="s">
-        <v>15</v>
-      </c>
-      <c r="E412">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413">
-        <v>412</v>
-      </c>
-      <c r="C413" s="2">
-        <v>25</v>
-      </c>
-      <c r="D413" t="s">
-        <v>7</v>
-      </c>
-      <c r="E413">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414">
-        <v>413</v>
-      </c>
-      <c r="C414" s="2">
-        <v>26</v>
-      </c>
-      <c r="D414" t="s">
-        <v>24</v>
-      </c>
-      <c r="E414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415">
-        <v>414</v>
-      </c>
-      <c r="C415" s="2">
-        <v>27</v>
-      </c>
-      <c r="D415" t="s">
-        <v>6</v>
-      </c>
-      <c r="E415">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416">
-        <v>415</v>
-      </c>
-      <c r="C416" s="2">
-        <v>28</v>
-      </c>
-      <c r="D416" t="s">
-        <v>21</v>
-      </c>
-      <c r="E416">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417">
-        <v>416</v>
-      </c>
-      <c r="C417" s="2">
-        <v>29</v>
-      </c>
-      <c r="D417" t="s">
-        <v>23</v>
-      </c>
-      <c r="E417">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418">
-        <v>417</v>
-      </c>
-      <c r="C418" s="2">
-        <v>30</v>
-      </c>
-      <c r="D418" t="s">
-        <v>13</v>
-      </c>
-      <c r="E418">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419">
-        <v>418</v>
-      </c>
-      <c r="C419" s="2">
-        <v>31</v>
-      </c>
-      <c r="D419" t="s">
-        <v>19</v>
-      </c>
-      <c r="E419">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420">
-        <v>419</v>
-      </c>
-      <c r="C420" s="2">
-        <v>32</v>
-      </c>
-      <c r="D420" t="s">
-        <v>5</v>
-      </c>
-      <c r="E420">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421">
-        <v>420</v>
-      </c>
-      <c r="C421" s="2">
-        <v>33</v>
-      </c>
-      <c r="D421" t="s">
-        <v>8</v>
-      </c>
-      <c r="E421">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422">
-        <v>421</v>
-      </c>
-      <c r="C422" s="2">
-        <v>34</v>
-      </c>
-      <c r="D422" t="s">
-        <v>11</v>
-      </c>
-      <c r="E422">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423">
-        <v>422</v>
-      </c>
-      <c r="C423" s="2">
-        <v>35</v>
-      </c>
-      <c r="D423" t="s">
-        <v>20</v>
-      </c>
-      <c r="E423">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424">
-        <v>423</v>
-      </c>
-      <c r="C424" s="2">
-        <v>36</v>
-      </c>
-      <c r="D424" t="s">
-        <v>12</v>
-      </c>
-      <c r="E424">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425">
-        <v>424</v>
-      </c>
-      <c r="C425" s="2">
-        <v>37</v>
-      </c>
-      <c r="D425" t="s">
-        <v>22</v>
-      </c>
-      <c r="E425">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426">
-        <v>425</v>
-      </c>
-      <c r="C426" s="2">
-        <v>38</v>
-      </c>
-      <c r="D426" t="s">
-        <v>24</v>
-      </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <f>SUM(E2:E388)</f>
+        <v>178428</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
       <c r="C427" s="2"/>
-      <c r="E427">
-        <f>SUM(E2:E426)</f>
-        <v>194963</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6697,7 +6160,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6749,10 +6212,10 @@
         <v>43479</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7255,7 +6718,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3500</v>
@@ -7393,7 +6856,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>8000</v>
@@ -7663,7 +7126,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>500</v>
@@ -7708,7 +7171,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <f>SUM(B2:B22)</f>
@@ -7765,7 +7228,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="M24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <f>SUM(N2:N22)</f>

--- a/bill3/kansepur_bill3.xlsx
+++ b/bill3/kansepur_bill3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,31 @@
           </rPr>
           <t xml:space="preserve">
 balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>acer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+to dad
+</t>
         </r>
       </text>
     </comment>
@@ -658,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+    <sheetView topLeftCell="A374" workbookViewId="0">
       <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
@@ -6159,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6259,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(B2:M2)</f>
+        <f t="shared" ref="N2:N23" si="0">SUM(B2:M2)</f>
         <v>13000</v>
       </c>
     </row>
@@ -6304,7 +6329,7 @@
         <v>2000</v>
       </c>
       <c r="N3">
-        <f>SUM(B3:M3)</f>
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
     </row>
@@ -6349,7 +6374,7 @@
         <v>2000</v>
       </c>
       <c r="N4">
-        <f>SUM(B4:M4)</f>
+        <f t="shared" si="0"/>
         <v>17000</v>
       </c>
     </row>
@@ -6394,7 +6419,7 @@
         <v>2000</v>
       </c>
       <c r="N5">
-        <f>SUM(B5:M5)</f>
+        <f t="shared" si="0"/>
         <v>20500</v>
       </c>
     </row>
@@ -6439,7 +6464,7 @@
         <v>2000</v>
       </c>
       <c r="N6">
-        <f>SUM(B6:M6)</f>
+        <f t="shared" si="0"/>
         <v>19410</v>
       </c>
       <c r="O6">
@@ -6487,7 +6512,7 @@
         <v>2000</v>
       </c>
       <c r="N7">
-        <f>SUM(B7:M7)</f>
+        <f t="shared" si="0"/>
         <v>9500</v>
       </c>
     </row>
@@ -6532,8 +6557,11 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUM(B8:M8)</f>
+        <f t="shared" si="0"/>
         <v>10500</v>
+      </c>
+      <c r="O8">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6577,7 +6605,7 @@
         <v>2000</v>
       </c>
       <c r="N9">
-        <f>SUM(B9:M9)</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
@@ -6622,7 +6650,7 @@
         <v>2000</v>
       </c>
       <c r="N10">
-        <f>SUM(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
@@ -6667,7 +6695,7 @@
         <v>2000</v>
       </c>
       <c r="N11">
-        <f>SUM(B11:M11)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -6712,7 +6740,7 @@
         <v>1500</v>
       </c>
       <c r="N12">
-        <f>SUM(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>13500</v>
       </c>
     </row>
@@ -6757,7 +6785,7 @@
         <v>5000</v>
       </c>
       <c r="N13">
-        <f>SUM(B13:M13)</f>
+        <f t="shared" si="0"/>
         <v>48500</v>
       </c>
     </row>
@@ -6802,11 +6830,11 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>SUM(B14:M14)</f>
+        <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="O14">
-        <v>500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6850,7 +6878,7 @@
         <v>2500</v>
       </c>
       <c r="N15">
-        <f>SUM(B15:M15)</f>
+        <f t="shared" si="0"/>
         <v>11500</v>
       </c>
     </row>
@@ -6895,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>SUM(B16:M16)</f>
+        <f t="shared" si="0"/>
         <v>47000</v>
       </c>
     </row>
@@ -6940,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>SUM(B17:M17)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -6985,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>SUM(B18:M18)</f>
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
@@ -7030,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>SUM(B19:M19)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
@@ -7075,7 +7103,7 @@
         <v>2000</v>
       </c>
       <c r="N20">
-        <f>SUM(B20:M20)</f>
+        <f t="shared" si="0"/>
         <v>15060</v>
       </c>
     </row>
@@ -7120,7 +7148,7 @@
         <v>2000</v>
       </c>
       <c r="N21">
-        <f>SUM(B21:M21)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
@@ -7165,7 +7193,7 @@
         <v>3500</v>
       </c>
       <c r="N22">
-        <f>SUM(B22:M22)</f>
+        <f t="shared" si="0"/>
         <v>28530</v>
       </c>
     </row>
@@ -7174,55 +7202,55 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <f>SUM(B2:B22)</f>
+        <f t="shared" ref="B23:M23" si="1">SUM(B2:B22)</f>
         <v>27000</v>
       </c>
       <c r="C23">
-        <f>SUM(C2:C22)</f>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="D23">
-        <f>SUM(D2:D22)</f>
+        <f t="shared" si="1"/>
         <v>29500</v>
       </c>
       <c r="E23">
-        <f>SUM(E2:E22)</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="F23">
-        <f>SUM(F2:F22)</f>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
       <c r="G23">
-        <f>SUM(G2:G22)</f>
+        <f t="shared" si="1"/>
         <v>30500</v>
       </c>
       <c r="H23">
-        <f>SUM(H2:H22)</f>
+        <f t="shared" si="1"/>
         <v>40500</v>
       </c>
       <c r="I23">
-        <f>SUM(I2:I22)</f>
+        <f t="shared" si="1"/>
         <v>40500</v>
       </c>
       <c r="J23">
-        <f>SUM(J2:J22)</f>
+        <f t="shared" si="1"/>
         <v>36500</v>
       </c>
       <c r="K23">
-        <f>SUM(K2:K22)</f>
+        <f t="shared" si="1"/>
         <v>28500</v>
       </c>
       <c r="L23">
-        <f>SUM(L2:L22)</f>
+        <f t="shared" si="1"/>
         <v>28500</v>
       </c>
       <c r="M23">
-        <f>SUM(M2:M22)</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="N23">
-        <f>SUM(B23:M23)</f>
+        <f t="shared" si="0"/>
         <v>365000</v>
       </c>
     </row>
